--- a/ArendseeExperiment/20220800SequentalExtractions.xlsx
+++ b/ArendseeExperiment/20220800SequentalExtractions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuppevelt\Nextcloud\Documents\DATA\Arendsee_experiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harmv\Nextcloud\Documents\DATA\Code\PhD_thesis\ArendseeExperiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD92F66-2B30-4925-A5BE-9BE051F08D1B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB3B10E-7663-4CFA-8172-A60343E8E058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E6AC47CB-9B1F-48AB-B77D-F5FF670D77EC}"/>
   </bookViews>
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD93168F-8F82-4700-B411-D2EC8E6B1D9F}">
   <dimension ref="A1:G721"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A708" workbookViewId="0">
-      <selection activeCell="C692" sqref="C692:C721"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G602" sqref="G602"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5082,9 +5082,6 @@
       <c r="F212">
         <v>3</v>
       </c>
-      <c r="G212">
-        <v>-0.502</v>
-      </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213">
@@ -11216,7 +11213,7 @@
         <v>1</v>
       </c>
       <c r="G481">
-        <v>-2.1999999999999999E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.25">
@@ -11880,7 +11877,7 @@
         <v>2</v>
       </c>
       <c r="G510">
-        <v>-2.1999999999999999E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.25">
@@ -11900,7 +11897,7 @@
         <v>2</v>
       </c>
       <c r="G511">
-        <v>-0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.25">
@@ -13589,9 +13586,6 @@
       <c r="F585">
         <v>1</v>
       </c>
-      <c r="G585">
-        <v>-1.7000000000000001E-2</v>
-      </c>
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A586">
@@ -13952,7 +13946,7 @@
         <v>1</v>
       </c>
       <c r="G601">
-        <v>-1.7000000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:7" x14ac:dyDescent="0.25">

--- a/ArendseeExperiment/20220800SequentalExtractions.xlsx
+++ b/ArendseeExperiment/20220800SequentalExtractions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harmv\Nextcloud\Documents\DATA\Code\PhD_thesis\ArendseeExperiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuppevelt\Nextcloud\Documents\DATA\Code\PhD_thesis\ArendseeExperiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB3B10E-7663-4CFA-8172-A60343E8E058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0F028F-A59A-48E2-A48A-DC1E3AB267AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E6AC47CB-9B1F-48AB-B77D-F5FF670D77EC}"/>
+    <workbookView xWindow="-28920" yWindow="-2205" windowWidth="29040" windowHeight="15840" xr2:uid="{E6AC47CB-9B1F-48AB-B77D-F5FF670D77EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="15">
   <si>
     <t>Nr</t>
   </si>
@@ -421,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD93168F-8F82-4700-B411-D2EC8E6B1D9F}">
-  <dimension ref="A1:G721"/>
+  <dimension ref="A1:G781"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G602" sqref="G602"/>
+      <selection activeCell="B2" sqref="B2:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,7 +460,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="C2">
         <v>2.2706</v>
@@ -483,7 +483,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="C3">
         <v>1.8347</v>
@@ -506,7 +506,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="C4">
         <v>2.4495</v>
@@ -529,7 +529,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="C5">
         <v>1.1529</v>
@@ -552,7 +552,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>1.0942000000000001</v>
@@ -575,7 +575,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>2.1869000000000001</v>
@@ -598,7 +598,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>1.9016999999999999</v>
@@ -621,7 +621,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>1.0911999999999999</v>
@@ -644,7 +644,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>1.3306</v>
@@ -667,7 +667,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>1.3754999999999999</v>
@@ -690,7 +690,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>1.3022</v>
@@ -713,7 +713,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>1.6269</v>
@@ -736,7 +736,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C14">
         <v>1.4965999999999999</v>
@@ -759,7 +759,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>1.3423</v>
@@ -782,7 +782,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C16">
         <v>1.1171</v>
@@ -805,7 +805,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C17">
         <v>1.3292999999999999</v>
@@ -828,7 +828,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C18">
         <v>1.8481000000000001</v>
@@ -851,7 +851,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C19">
         <v>1.5109999999999999</v>
@@ -874,7 +874,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C20">
         <v>1.268</v>
@@ -897,7 +897,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C21">
         <v>1.2796000000000001</v>
@@ -920,7 +920,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C22">
         <v>1.0662</v>
@@ -943,7 +943,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C23">
         <v>1.2577</v>
@@ -966,7 +966,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C24">
         <v>1.4059999999999999</v>
@@ -989,7 +989,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C25">
         <v>1.2041999999999999</v>
@@ -1012,7 +1012,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C26">
         <v>1.4975000000000001</v>
@@ -1035,7 +1035,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C27">
         <v>1.0647</v>
@@ -1058,7 +1058,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C28">
         <v>1.3561000000000001</v>
@@ -1081,7 +1081,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C29">
         <v>1.6283000000000001</v>
@@ -1144,7 +1144,7 @@
         <v>1</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="C32">
         <v>2.2706</v>
@@ -1167,7 +1167,7 @@
         <v>2</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="C33">
         <v>1.8347</v>
@@ -1190,7 +1190,7 @@
         <v>3</v>
       </c>
       <c r="B34">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="C34">
         <v>2.4495</v>
@@ -1213,7 +1213,7 @@
         <v>4</v>
       </c>
       <c r="B35">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="C35">
         <v>1.1529</v>
@@ -1236,7 +1236,7 @@
         <v>5</v>
       </c>
       <c r="B36">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C36">
         <v>1.0942000000000001</v>
@@ -1259,7 +1259,7 @@
         <v>6</v>
       </c>
       <c r="B37">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C37">
         <v>2.1869000000000001</v>
@@ -1282,7 +1282,7 @@
         <v>7</v>
       </c>
       <c r="B38">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C38">
         <v>1.9016999999999999</v>
@@ -1305,7 +1305,7 @@
         <v>8</v>
       </c>
       <c r="B39">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C39">
         <v>1.0911999999999999</v>
@@ -1328,7 +1328,7 @@
         <v>9</v>
       </c>
       <c r="B40">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C40">
         <v>1.3306</v>
@@ -1351,7 +1351,7 @@
         <v>10</v>
       </c>
       <c r="B41">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C41">
         <v>1.3754999999999999</v>
@@ -1374,7 +1374,7 @@
         <v>11</v>
       </c>
       <c r="B42">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C42">
         <v>1.3022</v>
@@ -1397,7 +1397,7 @@
         <v>12</v>
       </c>
       <c r="B43">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C43">
         <v>1.6269</v>
@@ -1420,7 +1420,7 @@
         <v>13</v>
       </c>
       <c r="B44">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C44">
         <v>1.4965999999999999</v>
@@ -1443,7 +1443,7 @@
         <v>14</v>
       </c>
       <c r="B45">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C45">
         <v>1.3423</v>
@@ -1466,7 +1466,7 @@
         <v>15</v>
       </c>
       <c r="B46">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C46">
         <v>1.1171</v>
@@ -1489,7 +1489,7 @@
         <v>16</v>
       </c>
       <c r="B47">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C47">
         <v>1.3292999999999999</v>
@@ -1512,7 +1512,7 @@
         <v>17</v>
       </c>
       <c r="B48">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C48">
         <v>1.8481000000000001</v>
@@ -1535,7 +1535,7 @@
         <v>18</v>
       </c>
       <c r="B49">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C49">
         <v>1.5109999999999999</v>
@@ -1558,7 +1558,7 @@
         <v>19</v>
       </c>
       <c r="B50">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C50">
         <v>1.268</v>
@@ -1581,7 +1581,7 @@
         <v>20</v>
       </c>
       <c r="B51">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C51">
         <v>1.2796000000000001</v>
@@ -1604,7 +1604,7 @@
         <v>21</v>
       </c>
       <c r="B52">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C52">
         <v>1.0662</v>
@@ -1627,7 +1627,7 @@
         <v>22</v>
       </c>
       <c r="B53">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C53">
         <v>1.2577</v>
@@ -1650,7 +1650,7 @@
         <v>23</v>
       </c>
       <c r="B54">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C54">
         <v>1.4059999999999999</v>
@@ -1673,7 +1673,7 @@
         <v>24</v>
       </c>
       <c r="B55">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C55">
         <v>1.2041999999999999</v>
@@ -1696,7 +1696,7 @@
         <v>25</v>
       </c>
       <c r="B56">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C56">
         <v>1.4975000000000001</v>
@@ -1719,7 +1719,7 @@
         <v>26</v>
       </c>
       <c r="B57">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C57">
         <v>1.0647</v>
@@ -1742,7 +1742,7 @@
         <v>27</v>
       </c>
       <c r="B58">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C58">
         <v>1.3561000000000001</v>
@@ -1765,7 +1765,7 @@
         <v>28</v>
       </c>
       <c r="B59">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C59">
         <v>1.6283000000000001</v>
@@ -1828,7 +1828,7 @@
         <v>1</v>
       </c>
       <c r="B62">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="C62">
         <v>2.2706</v>
@@ -1841,6 +1841,9 @@
       </c>
       <c r="F62">
         <v>1</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -1848,7 +1851,7 @@
         <v>2</v>
       </c>
       <c r="B63">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="C63">
         <v>1.8347</v>
@@ -1861,6 +1864,9 @@
       </c>
       <c r="F63">
         <v>1</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -1868,7 +1874,7 @@
         <v>3</v>
       </c>
       <c r="B64">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="C64">
         <v>2.4495</v>
@@ -1882,13 +1888,16 @@
       <c r="F64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>4</v>
       </c>
       <c r="B65">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="C65">
         <v>1.1529</v>
@@ -1902,13 +1911,16 @@
       <c r="F65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>5</v>
       </c>
       <c r="B66">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C66">
         <v>1.0942000000000001</v>
@@ -1922,13 +1934,16 @@
       <c r="F66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>6</v>
       </c>
       <c r="B67">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C67">
         <v>2.1869000000000001</v>
@@ -1942,13 +1957,16 @@
       <c r="F67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>7</v>
       </c>
       <c r="B68">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C68">
         <v>1.9016999999999999</v>
@@ -1962,13 +1980,16 @@
       <c r="F68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>8</v>
       </c>
       <c r="B69">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C69">
         <v>1.0911999999999999</v>
@@ -1982,13 +2003,16 @@
       <c r="F69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>9</v>
       </c>
       <c r="B70">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C70">
         <v>1.3306</v>
@@ -2002,13 +2026,16 @@
       <c r="F70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>10</v>
       </c>
       <c r="B71">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C71">
         <v>1.3754999999999999</v>
@@ -2022,13 +2049,16 @@
       <c r="F71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>11</v>
       </c>
       <c r="B72">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C72">
         <v>1.3022</v>
@@ -2042,13 +2072,16 @@
       <c r="F72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>12</v>
       </c>
       <c r="B73">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C73">
         <v>1.6269</v>
@@ -2062,13 +2095,16 @@
       <c r="F73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>13</v>
       </c>
       <c r="B74">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C74">
         <v>1.4965999999999999</v>
@@ -2082,13 +2118,16 @@
       <c r="F74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>14</v>
       </c>
       <c r="B75">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C75">
         <v>1.3423</v>
@@ -2102,13 +2141,16 @@
       <c r="F75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>15</v>
       </c>
       <c r="B76">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C76">
         <v>1.1171</v>
@@ -2122,13 +2164,16 @@
       <c r="F76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>16</v>
       </c>
       <c r="B77">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C77">
         <v>1.3292999999999999</v>
@@ -2142,13 +2187,16 @@
       <c r="F77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>17</v>
       </c>
       <c r="B78">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C78">
         <v>1.8481000000000001</v>
@@ -2162,13 +2210,16 @@
       <c r="F78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>18</v>
       </c>
       <c r="B79">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C79">
         <v>1.5109999999999999</v>
@@ -2182,13 +2233,16 @@
       <c r="F79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>19</v>
       </c>
       <c r="B80">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C80">
         <v>1.268</v>
@@ -2202,13 +2256,16 @@
       <c r="F80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>20</v>
       </c>
       <c r="B81">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C81">
         <v>1.2796000000000001</v>
@@ -2222,13 +2279,16 @@
       <c r="F81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>21</v>
       </c>
       <c r="B82">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C82">
         <v>1.0662</v>
@@ -2242,13 +2302,16 @@
       <c r="F82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>22</v>
       </c>
       <c r="B83">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C83">
         <v>1.2577</v>
@@ -2262,13 +2325,16 @@
       <c r="F83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>23</v>
       </c>
       <c r="B84">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C84">
         <v>1.4059999999999999</v>
@@ -2282,13 +2348,16 @@
       <c r="F84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>24</v>
       </c>
       <c r="B85">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C85">
         <v>1.2041999999999999</v>
@@ -2302,13 +2371,16 @@
       <c r="F85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>25</v>
       </c>
       <c r="B86">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C86">
         <v>1.4975000000000001</v>
@@ -2322,13 +2394,16 @@
       <c r="F86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G86">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>26</v>
       </c>
       <c r="B87">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C87">
         <v>1.0647</v>
@@ -2342,13 +2417,16 @@
       <c r="F87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>27</v>
       </c>
       <c r="B88">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C88">
         <v>1.3561000000000001</v>
@@ -2362,13 +2440,16 @@
       <c r="F88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>28</v>
       </c>
       <c r="B89">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C89">
         <v>1.6283000000000001</v>
@@ -2382,8 +2463,11 @@
       <c r="F89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>29</v>
       </c>
@@ -2399,8 +2483,11 @@
       <c r="F90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>30</v>
       </c>
@@ -2416,13 +2503,16 @@
       <c r="F91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1</v>
       </c>
       <c r="B92">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="C92">
         <v>2.2706</v>
@@ -2436,13 +2526,16 @@
       <c r="F92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2</v>
       </c>
       <c r="B93">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="C93">
         <v>1.8347</v>
@@ -2456,13 +2549,16 @@
       <c r="F93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>3</v>
       </c>
       <c r="B94">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="C94">
         <v>2.4495</v>
@@ -2476,13 +2572,16 @@
       <c r="F94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>4</v>
       </c>
       <c r="B95">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="C95">
         <v>1.1529</v>
@@ -2496,13 +2595,16 @@
       <c r="F95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>5</v>
       </c>
       <c r="B96">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C96">
         <v>1.0942000000000001</v>
@@ -2516,13 +2618,16 @@
       <c r="F96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>6</v>
       </c>
       <c r="B97">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C97">
         <v>2.1869000000000001</v>
@@ -2536,13 +2641,16 @@
       <c r="F97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>7</v>
       </c>
       <c r="B98">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C98">
         <v>1.9016999999999999</v>
@@ -2556,13 +2664,16 @@
       <c r="F98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>8</v>
       </c>
       <c r="B99">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C99">
         <v>1.0911999999999999</v>
@@ -2576,13 +2687,16 @@
       <c r="F99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>9</v>
       </c>
       <c r="B100">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C100">
         <v>1.3306</v>
@@ -2596,13 +2710,16 @@
       <c r="F100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>10</v>
       </c>
       <c r="B101">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C101">
         <v>1.3754999999999999</v>
@@ -2616,13 +2733,16 @@
       <c r="F101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>11</v>
       </c>
       <c r="B102">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C102">
         <v>1.3022</v>
@@ -2636,13 +2756,16 @@
       <c r="F102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>12</v>
       </c>
       <c r="B103">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C103">
         <v>1.6269</v>
@@ -2656,13 +2779,16 @@
       <c r="F103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>13</v>
       </c>
       <c r="B104">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C104">
         <v>1.4965999999999999</v>
@@ -2676,13 +2802,16 @@
       <c r="F104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>14</v>
       </c>
       <c r="B105">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C105">
         <v>1.3423</v>
@@ -2696,13 +2825,16 @@
       <c r="F105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>15</v>
       </c>
       <c r="B106">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C106">
         <v>1.1171</v>
@@ -2716,13 +2848,16 @@
       <c r="F106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>16</v>
       </c>
       <c r="B107">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C107">
         <v>1.3292999999999999</v>
@@ -2736,13 +2871,16 @@
       <c r="F107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>17</v>
       </c>
       <c r="B108">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C108">
         <v>1.8481000000000001</v>
@@ -2756,13 +2894,16 @@
       <c r="F108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>18</v>
       </c>
       <c r="B109">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C109">
         <v>1.5109999999999999</v>
@@ -2776,13 +2917,16 @@
       <c r="F109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>19</v>
       </c>
       <c r="B110">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C110">
         <v>1.268</v>
@@ -2796,13 +2940,16 @@
       <c r="F110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>20</v>
       </c>
       <c r="B111">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C111">
         <v>1.2796000000000001</v>
@@ -2816,13 +2963,16 @@
       <c r="F111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>21</v>
       </c>
       <c r="B112">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C112">
         <v>1.0662</v>
@@ -2835,6 +2985,9 @@
       </c>
       <c r="F112">
         <v>1</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -2842,7 +2995,7 @@
         <v>22</v>
       </c>
       <c r="B113">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C113">
         <v>1.2577</v>
@@ -2855,6 +3008,9 @@
       </c>
       <c r="F113">
         <v>1</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -2862,7 +3018,7 @@
         <v>23</v>
       </c>
       <c r="B114">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C114">
         <v>1.4059999999999999</v>
@@ -2875,6 +3031,9 @@
       </c>
       <c r="F114">
         <v>1</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -2882,7 +3041,7 @@
         <v>24</v>
       </c>
       <c r="B115">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C115">
         <v>1.2041999999999999</v>
@@ -2895,6 +3054,9 @@
       </c>
       <c r="F115">
         <v>1</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -2902,7 +3064,7 @@
         <v>25</v>
       </c>
       <c r="B116">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C116">
         <v>1.4975000000000001</v>
@@ -2915,6 +3077,9 @@
       </c>
       <c r="F116">
         <v>1</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -2922,7 +3087,7 @@
         <v>26</v>
       </c>
       <c r="B117">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C117">
         <v>1.0647</v>
@@ -2935,6 +3100,9 @@
       </c>
       <c r="F117">
         <v>1</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -2942,7 +3110,7 @@
         <v>27</v>
       </c>
       <c r="B118">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C118">
         <v>1.3561000000000001</v>
@@ -2955,6 +3123,9 @@
       </c>
       <c r="F118">
         <v>1</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -2962,7 +3133,7 @@
         <v>28</v>
       </c>
       <c r="B119">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C119">
         <v>1.6283000000000001</v>
@@ -2975,6 +3146,9 @@
       </c>
       <c r="F119">
         <v>1</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -2993,6 +3167,9 @@
       <c r="F120">
         <v>1</v>
       </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
@@ -3010,13 +3187,16 @@
       <c r="F121">
         <v>1</v>
       </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1</v>
       </c>
       <c r="B122">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="C122">
         <v>2.2706</v>
@@ -3039,7 +3219,7 @@
         <v>2</v>
       </c>
       <c r="B123">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="C123">
         <v>1.8347</v>
@@ -3062,7 +3242,7 @@
         <v>3</v>
       </c>
       <c r="B124">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="C124">
         <v>2.4495</v>
@@ -3085,7 +3265,7 @@
         <v>4</v>
       </c>
       <c r="B125">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="C125">
         <v>1.1529</v>
@@ -3108,7 +3288,7 @@
         <v>5</v>
       </c>
       <c r="B126">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C126">
         <v>1.0942000000000001</v>
@@ -3131,7 +3311,7 @@
         <v>6</v>
       </c>
       <c r="B127">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C127">
         <v>2.1869000000000001</v>
@@ -3154,7 +3334,7 @@
         <v>7</v>
       </c>
       <c r="B128">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C128">
         <v>1.9016999999999999</v>
@@ -3177,7 +3357,7 @@
         <v>8</v>
       </c>
       <c r="B129">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C129">
         <v>1.0911999999999999</v>
@@ -3200,7 +3380,7 @@
         <v>9</v>
       </c>
       <c r="B130">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C130">
         <v>1.3306</v>
@@ -3223,7 +3403,7 @@
         <v>10</v>
       </c>
       <c r="B131">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C131">
         <v>1.3754999999999999</v>
@@ -3246,7 +3426,7 @@
         <v>11</v>
       </c>
       <c r="B132">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C132">
         <v>1.3022</v>
@@ -3269,7 +3449,7 @@
         <v>12</v>
       </c>
       <c r="B133">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C133">
         <v>1.6269</v>
@@ -3292,7 +3472,7 @@
         <v>13</v>
       </c>
       <c r="B134">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C134">
         <v>1.4965999999999999</v>
@@ -3315,7 +3495,7 @@
         <v>14</v>
       </c>
       <c r="B135">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C135">
         <v>1.3423</v>
@@ -3338,7 +3518,7 @@
         <v>15</v>
       </c>
       <c r="B136">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C136">
         <v>1.1171</v>
@@ -3361,7 +3541,7 @@
         <v>16</v>
       </c>
       <c r="B137">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C137">
         <v>1.3292999999999999</v>
@@ -3384,7 +3564,7 @@
         <v>17</v>
       </c>
       <c r="B138">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C138">
         <v>1.8481000000000001</v>
@@ -3407,7 +3587,7 @@
         <v>18</v>
       </c>
       <c r="B139">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C139">
         <v>1.5109999999999999</v>
@@ -3430,7 +3610,7 @@
         <v>19</v>
       </c>
       <c r="B140">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C140">
         <v>1.268</v>
@@ -3453,7 +3633,7 @@
         <v>20</v>
       </c>
       <c r="B141">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C141">
         <v>1.2796000000000001</v>
@@ -3476,7 +3656,7 @@
         <v>21</v>
       </c>
       <c r="B142">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C142">
         <v>1.0662</v>
@@ -3499,7 +3679,7 @@
         <v>22</v>
       </c>
       <c r="B143">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C143">
         <v>1.2577</v>
@@ -3522,7 +3702,7 @@
         <v>23</v>
       </c>
       <c r="B144">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C144">
         <v>1.4059999999999999</v>
@@ -3545,7 +3725,7 @@
         <v>24</v>
       </c>
       <c r="B145">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C145">
         <v>1.2041999999999999</v>
@@ -3568,7 +3748,7 @@
         <v>25</v>
       </c>
       <c r="B146">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C146">
         <v>1.4975000000000001</v>
@@ -3591,7 +3771,7 @@
         <v>26</v>
       </c>
       <c r="B147">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C147">
         <v>1.0647</v>
@@ -3614,7 +3794,7 @@
         <v>27</v>
       </c>
       <c r="B148">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C148">
         <v>1.3561000000000001</v>
@@ -3637,7 +3817,7 @@
         <v>28</v>
       </c>
       <c r="B149">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C149">
         <v>1.6283000000000001</v>
@@ -3700,7 +3880,7 @@
         <v>1</v>
       </c>
       <c r="B152">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="C152">
         <v>2.2706</v>
@@ -3723,7 +3903,7 @@
         <v>2</v>
       </c>
       <c r="B153">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="C153">
         <v>1.8347</v>
@@ -3746,7 +3926,7 @@
         <v>3</v>
       </c>
       <c r="B154">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="C154">
         <v>2.4495</v>
@@ -3769,7 +3949,7 @@
         <v>4</v>
       </c>
       <c r="B155">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="C155">
         <v>1.1529</v>
@@ -3792,7 +3972,7 @@
         <v>5</v>
       </c>
       <c r="B156">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C156">
         <v>1.0942000000000001</v>
@@ -3815,7 +3995,7 @@
         <v>6</v>
       </c>
       <c r="B157">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C157">
         <v>2.1869000000000001</v>
@@ -3838,7 +4018,7 @@
         <v>7</v>
       </c>
       <c r="B158">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C158">
         <v>1.9016999999999999</v>
@@ -3861,7 +4041,7 @@
         <v>8</v>
       </c>
       <c r="B159">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C159">
         <v>1.0911999999999999</v>
@@ -3884,7 +4064,7 @@
         <v>9</v>
       </c>
       <c r="B160">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C160">
         <v>1.3306</v>
@@ -3907,7 +4087,7 @@
         <v>10</v>
       </c>
       <c r="B161">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C161">
         <v>1.3754999999999999</v>
@@ -3930,7 +4110,7 @@
         <v>11</v>
       </c>
       <c r="B162">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C162">
         <v>1.3022</v>
@@ -3953,7 +4133,7 @@
         <v>12</v>
       </c>
       <c r="B163">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C163">
         <v>1.6269</v>
@@ -3976,7 +4156,7 @@
         <v>13</v>
       </c>
       <c r="B164">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C164">
         <v>1.4965999999999999</v>
@@ -3999,7 +4179,7 @@
         <v>14</v>
       </c>
       <c r="B165">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C165">
         <v>1.3423</v>
@@ -4022,7 +4202,7 @@
         <v>15</v>
       </c>
       <c r="B166">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C166">
         <v>1.1171</v>
@@ -4045,7 +4225,7 @@
         <v>16</v>
       </c>
       <c r="B167">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C167">
         <v>1.3292999999999999</v>
@@ -4068,7 +4248,7 @@
         <v>17</v>
       </c>
       <c r="B168">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C168">
         <v>1.8481000000000001</v>
@@ -4091,7 +4271,7 @@
         <v>18</v>
       </c>
       <c r="B169">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C169">
         <v>1.5109999999999999</v>
@@ -4114,7 +4294,7 @@
         <v>19</v>
       </c>
       <c r="B170">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C170">
         <v>1.268</v>
@@ -4137,7 +4317,7 @@
         <v>20</v>
       </c>
       <c r="B171">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C171">
         <v>1.2796000000000001</v>
@@ -4160,7 +4340,7 @@
         <v>21</v>
       </c>
       <c r="B172">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C172">
         <v>1.0662</v>
@@ -4183,7 +4363,7 @@
         <v>22</v>
       </c>
       <c r="B173">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C173">
         <v>1.2577</v>
@@ -4206,7 +4386,7 @@
         <v>23</v>
       </c>
       <c r="B174">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C174">
         <v>1.4059999999999999</v>
@@ -4229,7 +4409,7 @@
         <v>24</v>
       </c>
       <c r="B175">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C175">
         <v>1.2041999999999999</v>
@@ -4252,7 +4432,7 @@
         <v>25</v>
       </c>
       <c r="B176">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C176">
         <v>1.4975000000000001</v>
@@ -4275,7 +4455,7 @@
         <v>26</v>
       </c>
       <c r="B177">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C177">
         <v>1.0647</v>
@@ -4298,7 +4478,7 @@
         <v>27</v>
       </c>
       <c r="B178">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C178">
         <v>1.3561000000000001</v>
@@ -4321,7 +4501,7 @@
         <v>28</v>
       </c>
       <c r="B179">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C179">
         <v>1.6283000000000001</v>
@@ -4384,7 +4564,7 @@
         <v>1</v>
       </c>
       <c r="B182">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="C182">
         <v>2.2706</v>
@@ -4407,7 +4587,7 @@
         <v>2</v>
       </c>
       <c r="B183">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="C183">
         <v>1.8347</v>
@@ -4430,7 +4610,7 @@
         <v>3</v>
       </c>
       <c r="B184">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="C184">
         <v>2.4495</v>
@@ -4453,7 +4633,7 @@
         <v>4</v>
       </c>
       <c r="B185">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="C185">
         <v>1.1529</v>
@@ -4476,7 +4656,7 @@
         <v>5</v>
       </c>
       <c r="B186">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C186">
         <v>1.0942000000000001</v>
@@ -4499,7 +4679,7 @@
         <v>6</v>
       </c>
       <c r="B187">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C187">
         <v>2.1869000000000001</v>
@@ -4522,7 +4702,7 @@
         <v>7</v>
       </c>
       <c r="B188">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C188">
         <v>1.9016999999999999</v>
@@ -4545,7 +4725,7 @@
         <v>8</v>
       </c>
       <c r="B189">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C189">
         <v>1.0911999999999999</v>
@@ -4568,7 +4748,7 @@
         <v>9</v>
       </c>
       <c r="B190">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C190">
         <v>1.3306</v>
@@ -4591,7 +4771,7 @@
         <v>10</v>
       </c>
       <c r="B191">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C191">
         <v>1.3754999999999999</v>
@@ -4614,7 +4794,7 @@
         <v>11</v>
       </c>
       <c r="B192">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C192">
         <v>1.3022</v>
@@ -4637,7 +4817,7 @@
         <v>12</v>
       </c>
       <c r="B193">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C193">
         <v>1.6269</v>
@@ -4660,7 +4840,7 @@
         <v>13</v>
       </c>
       <c r="B194">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C194">
         <v>1.4965999999999999</v>
@@ -4683,7 +4863,7 @@
         <v>14</v>
       </c>
       <c r="B195">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C195">
         <v>1.3423</v>
@@ -4706,7 +4886,7 @@
         <v>15</v>
       </c>
       <c r="B196">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C196">
         <v>1.1171</v>
@@ -4729,7 +4909,7 @@
         <v>16</v>
       </c>
       <c r="B197">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C197">
         <v>1.3292999999999999</v>
@@ -4752,7 +4932,7 @@
         <v>17</v>
       </c>
       <c r="B198">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C198">
         <v>1.8481000000000001</v>
@@ -4775,7 +4955,7 @@
         <v>18</v>
       </c>
       <c r="B199">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C199">
         <v>1.5109999999999999</v>
@@ -4798,7 +4978,7 @@
         <v>19</v>
       </c>
       <c r="B200">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C200">
         <v>1.268</v>
@@ -4821,7 +5001,7 @@
         <v>20</v>
       </c>
       <c r="B201">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C201">
         <v>1.2796000000000001</v>
@@ -4844,7 +5024,7 @@
         <v>21</v>
       </c>
       <c r="B202">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C202">
         <v>1.0662</v>
@@ -4867,7 +5047,7 @@
         <v>22</v>
       </c>
       <c r="B203">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C203">
         <v>1.2577</v>
@@ -4890,7 +5070,7 @@
         <v>23</v>
       </c>
       <c r="B204">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C204">
         <v>1.4059999999999999</v>
@@ -4913,7 +5093,7 @@
         <v>24</v>
       </c>
       <c r="B205">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C205">
         <v>1.2041999999999999</v>
@@ -4936,7 +5116,7 @@
         <v>25</v>
       </c>
       <c r="B206">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C206">
         <v>1.4975000000000001</v>
@@ -4959,7 +5139,7 @@
         <v>26</v>
       </c>
       <c r="B207">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C207">
         <v>1.0647</v>
@@ -4982,7 +5162,7 @@
         <v>27</v>
       </c>
       <c r="B208">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C208">
         <v>1.3561000000000001</v>
@@ -5005,7 +5185,7 @@
         <v>28</v>
       </c>
       <c r="B209">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C209">
         <v>1.6283000000000001</v>
@@ -5068,7 +5248,7 @@
         <v>1</v>
       </c>
       <c r="B212">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="C212">
         <v>2.2706</v>
@@ -5088,7 +5268,7 @@
         <v>2</v>
       </c>
       <c r="B213">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="C213">
         <v>1.8347</v>
@@ -5111,7 +5291,7 @@
         <v>3</v>
       </c>
       <c r="B214">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="C214">
         <v>2.4495</v>
@@ -5134,7 +5314,7 @@
         <v>4</v>
       </c>
       <c r="B215">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="C215">
         <v>1.1529</v>
@@ -5157,7 +5337,7 @@
         <v>5</v>
       </c>
       <c r="B216">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C216">
         <v>1.0942000000000001</v>
@@ -5180,7 +5360,7 @@
         <v>6</v>
       </c>
       <c r="B217">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C217">
         <v>2.1869000000000001</v>
@@ -5203,7 +5383,7 @@
         <v>7</v>
       </c>
       <c r="B218">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C218">
         <v>1.9016999999999999</v>
@@ -5226,7 +5406,7 @@
         <v>8</v>
       </c>
       <c r="B219">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C219">
         <v>1.0911999999999999</v>
@@ -5249,7 +5429,7 @@
         <v>9</v>
       </c>
       <c r="B220">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C220">
         <v>1.3306</v>
@@ -5272,7 +5452,7 @@
         <v>10</v>
       </c>
       <c r="B221">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C221">
         <v>1.3754999999999999</v>
@@ -5295,7 +5475,7 @@
         <v>11</v>
       </c>
       <c r="B222">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C222">
         <v>1.3022</v>
@@ -5318,7 +5498,7 @@
         <v>12</v>
       </c>
       <c r="B223">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C223">
         <v>1.6269</v>
@@ -5341,7 +5521,7 @@
         <v>13</v>
       </c>
       <c r="B224">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C224">
         <v>1.4965999999999999</v>
@@ -5364,7 +5544,7 @@
         <v>14</v>
       </c>
       <c r="B225">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C225">
         <v>1.3423</v>
@@ -5387,7 +5567,7 @@
         <v>15</v>
       </c>
       <c r="B226">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C226">
         <v>1.1171</v>
@@ -5410,7 +5590,7 @@
         <v>16</v>
       </c>
       <c r="B227">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C227">
         <v>1.3292999999999999</v>
@@ -5433,7 +5613,7 @@
         <v>17</v>
       </c>
       <c r="B228">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C228">
         <v>1.8481000000000001</v>
@@ -5456,7 +5636,7 @@
         <v>18</v>
       </c>
       <c r="B229">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C229">
         <v>1.5109999999999999</v>
@@ -5479,7 +5659,7 @@
         <v>19</v>
       </c>
       <c r="B230">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C230">
         <v>1.268</v>
@@ -5502,7 +5682,7 @@
         <v>20</v>
       </c>
       <c r="B231">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C231">
         <v>1.2796000000000001</v>
@@ -5525,7 +5705,7 @@
         <v>21</v>
       </c>
       <c r="B232">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C232">
         <v>1.0662</v>
@@ -5548,7 +5728,7 @@
         <v>22</v>
       </c>
       <c r="B233">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C233">
         <v>1.2577</v>
@@ -5571,7 +5751,7 @@
         <v>23</v>
       </c>
       <c r="B234">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C234">
         <v>1.4059999999999999</v>
@@ -5594,7 +5774,7 @@
         <v>24</v>
       </c>
       <c r="B235">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C235">
         <v>1.2041999999999999</v>
@@ -5617,7 +5797,7 @@
         <v>25</v>
       </c>
       <c r="B236">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C236">
         <v>1.4975000000000001</v>
@@ -5640,7 +5820,7 @@
         <v>26</v>
       </c>
       <c r="B237">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C237">
         <v>1.0647</v>
@@ -5663,7 +5843,7 @@
         <v>27</v>
       </c>
       <c r="B238">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C238">
         <v>1.3561000000000001</v>
@@ -5686,7 +5866,7 @@
         <v>28</v>
       </c>
       <c r="B239">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C239">
         <v>1.6283000000000001</v>
@@ -5749,7 +5929,7 @@
         <v>1</v>
       </c>
       <c r="B242">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="C242">
         <v>2.2706</v>
@@ -5772,7 +5952,7 @@
         <v>2</v>
       </c>
       <c r="B243">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="C243">
         <v>1.8347</v>
@@ -5795,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="B244">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="C244">
         <v>2.4495</v>
@@ -5818,7 +5998,7 @@
         <v>4</v>
       </c>
       <c r="B245">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="C245">
         <v>1.1529</v>
@@ -5841,7 +6021,7 @@
         <v>5</v>
       </c>
       <c r="B246">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C246">
         <v>1.0942000000000001</v>
@@ -5864,7 +6044,7 @@
         <v>6</v>
       </c>
       <c r="B247">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C247">
         <v>2.1869000000000001</v>
@@ -5887,7 +6067,7 @@
         <v>7</v>
       </c>
       <c r="B248">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C248">
         <v>1.9016999999999999</v>
@@ -5910,7 +6090,7 @@
         <v>8</v>
       </c>
       <c r="B249">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C249">
         <v>1.0911999999999999</v>
@@ -5933,7 +6113,7 @@
         <v>9</v>
       </c>
       <c r="B250">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C250">
         <v>1.3306</v>
@@ -5956,7 +6136,7 @@
         <v>10</v>
       </c>
       <c r="B251">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C251">
         <v>1.3754999999999999</v>
@@ -5979,7 +6159,7 @@
         <v>11</v>
       </c>
       <c r="B252">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C252">
         <v>1.3022</v>
@@ -6002,7 +6182,7 @@
         <v>12</v>
       </c>
       <c r="B253">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C253">
         <v>1.6269</v>
@@ -6025,7 +6205,7 @@
         <v>13</v>
       </c>
       <c r="B254">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C254">
         <v>1.4965999999999999</v>
@@ -6048,7 +6228,7 @@
         <v>14</v>
       </c>
       <c r="B255">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C255">
         <v>1.3423</v>
@@ -6071,7 +6251,7 @@
         <v>15</v>
       </c>
       <c r="B256">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C256">
         <v>1.1171</v>
@@ -6094,7 +6274,7 @@
         <v>16</v>
       </c>
       <c r="B257">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C257">
         <v>1.3292999999999999</v>
@@ -6117,7 +6297,7 @@
         <v>17</v>
       </c>
       <c r="B258">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C258">
         <v>1.8481000000000001</v>
@@ -6140,7 +6320,7 @@
         <v>18</v>
       </c>
       <c r="B259">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C259">
         <v>1.5109999999999999</v>
@@ -6163,7 +6343,7 @@
         <v>19</v>
       </c>
       <c r="B260">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C260">
         <v>1.268</v>
@@ -6186,7 +6366,7 @@
         <v>20</v>
       </c>
       <c r="B261">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C261">
         <v>1.2796000000000001</v>
@@ -6209,7 +6389,7 @@
         <v>21</v>
       </c>
       <c r="B262">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C262">
         <v>1.0662</v>
@@ -6232,7 +6412,7 @@
         <v>22</v>
       </c>
       <c r="B263">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C263">
         <v>1.2577</v>
@@ -6255,7 +6435,7 @@
         <v>23</v>
       </c>
       <c r="B264">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C264">
         <v>1.4059999999999999</v>
@@ -6278,7 +6458,7 @@
         <v>24</v>
       </c>
       <c r="B265">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C265">
         <v>1.2041999999999999</v>
@@ -6301,7 +6481,7 @@
         <v>25</v>
       </c>
       <c r="B266">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C266">
         <v>1.4975000000000001</v>
@@ -6324,7 +6504,7 @@
         <v>26</v>
       </c>
       <c r="B267">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C267">
         <v>1.0647</v>
@@ -6347,7 +6527,7 @@
         <v>27</v>
       </c>
       <c r="B268">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C268">
         <v>1.3561000000000001</v>
@@ -6370,7 +6550,7 @@
         <v>28</v>
       </c>
       <c r="B269">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C269">
         <v>1.6283000000000001</v>
@@ -6433,7 +6613,7 @@
         <v>1</v>
       </c>
       <c r="B272">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="C272">
         <v>2.2706</v>
@@ -6456,7 +6636,7 @@
         <v>2</v>
       </c>
       <c r="B273">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="C273">
         <v>1.8347</v>
@@ -6479,7 +6659,7 @@
         <v>3</v>
       </c>
       <c r="B274">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="C274">
         <v>2.4495</v>
@@ -6502,7 +6682,7 @@
         <v>4</v>
       </c>
       <c r="B275">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="C275">
         <v>1.1529</v>
@@ -6525,7 +6705,7 @@
         <v>5</v>
       </c>
       <c r="B276">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C276">
         <v>1.0942000000000001</v>
@@ -6548,7 +6728,7 @@
         <v>6</v>
       </c>
       <c r="B277">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C277">
         <v>2.1869000000000001</v>
@@ -6571,7 +6751,7 @@
         <v>7</v>
       </c>
       <c r="B278">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C278">
         <v>1.9016999999999999</v>
@@ -6594,7 +6774,7 @@
         <v>8</v>
       </c>
       <c r="B279">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C279">
         <v>1.0911999999999999</v>
@@ -6617,7 +6797,7 @@
         <v>9</v>
       </c>
       <c r="B280">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C280">
         <v>1.3306</v>
@@ -6640,7 +6820,7 @@
         <v>10</v>
       </c>
       <c r="B281">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C281">
         <v>1.3754999999999999</v>
@@ -6663,7 +6843,7 @@
         <v>11</v>
       </c>
       <c r="B282">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C282">
         <v>1.3022</v>
@@ -6686,7 +6866,7 @@
         <v>12</v>
       </c>
       <c r="B283">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C283">
         <v>1.6269</v>
@@ -6709,7 +6889,7 @@
         <v>13</v>
       </c>
       <c r="B284">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C284">
         <v>1.4965999999999999</v>
@@ -6732,7 +6912,7 @@
         <v>14</v>
       </c>
       <c r="B285">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C285">
         <v>1.3423</v>
@@ -6755,7 +6935,7 @@
         <v>15</v>
       </c>
       <c r="B286">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C286">
         <v>1.1171</v>
@@ -6778,7 +6958,7 @@
         <v>16</v>
       </c>
       <c r="B287">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C287">
         <v>1.3292999999999999</v>
@@ -6801,7 +6981,7 @@
         <v>17</v>
       </c>
       <c r="B288">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C288">
         <v>1.8481000000000001</v>
@@ -6824,7 +7004,7 @@
         <v>18</v>
       </c>
       <c r="B289">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C289">
         <v>1.5109999999999999</v>
@@ -6847,7 +7027,7 @@
         <v>19</v>
       </c>
       <c r="B290">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C290">
         <v>1.268</v>
@@ -6870,7 +7050,7 @@
         <v>20</v>
       </c>
       <c r="B291">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C291">
         <v>1.2796000000000001</v>
@@ -6893,7 +7073,7 @@
         <v>21</v>
       </c>
       <c r="B292">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C292">
         <v>1.0662</v>
@@ -6916,7 +7096,7 @@
         <v>22</v>
       </c>
       <c r="B293">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C293">
         <v>1.2577</v>
@@ -6939,7 +7119,7 @@
         <v>23</v>
       </c>
       <c r="B294">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C294">
         <v>1.4059999999999999</v>
@@ -6962,7 +7142,7 @@
         <v>24</v>
       </c>
       <c r="B295">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C295">
         <v>1.2041999999999999</v>
@@ -6985,7 +7165,7 @@
         <v>25</v>
       </c>
       <c r="B296">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C296">
         <v>1.4975000000000001</v>
@@ -7008,7 +7188,7 @@
         <v>26</v>
       </c>
       <c r="B297">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C297">
         <v>1.0647</v>
@@ -7031,7 +7211,7 @@
         <v>27</v>
       </c>
       <c r="B298">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C298">
         <v>1.3561000000000001</v>
@@ -7054,7 +7234,7 @@
         <v>28</v>
       </c>
       <c r="B299">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C299">
         <v>1.6283000000000001</v>
@@ -7117,7 +7297,7 @@
         <v>1</v>
       </c>
       <c r="B302">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="C302">
         <v>2.2706</v>
@@ -7140,7 +7320,7 @@
         <v>2</v>
       </c>
       <c r="B303">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="C303">
         <v>1.8347</v>
@@ -7163,7 +7343,7 @@
         <v>3</v>
       </c>
       <c r="B304">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="C304">
         <v>2.4495</v>
@@ -7186,7 +7366,7 @@
         <v>4</v>
       </c>
       <c r="B305">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="C305">
         <v>1.1529</v>
@@ -7209,7 +7389,7 @@
         <v>5</v>
       </c>
       <c r="B306">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C306">
         <v>1.0942000000000001</v>
@@ -7232,7 +7412,7 @@
         <v>6</v>
       </c>
       <c r="B307">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C307">
         <v>2.1869000000000001</v>
@@ -7255,7 +7435,7 @@
         <v>7</v>
       </c>
       <c r="B308">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C308">
         <v>1.9016999999999999</v>
@@ -7278,7 +7458,7 @@
         <v>8</v>
       </c>
       <c r="B309">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C309">
         <v>1.0911999999999999</v>
@@ -7301,7 +7481,7 @@
         <v>9</v>
       </c>
       <c r="B310">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C310">
         <v>1.3306</v>
@@ -7324,7 +7504,7 @@
         <v>10</v>
       </c>
       <c r="B311">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C311">
         <v>1.3754999999999999</v>
@@ -7347,7 +7527,7 @@
         <v>11</v>
       </c>
       <c r="B312">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C312">
         <v>1.3022</v>
@@ -7370,7 +7550,7 @@
         <v>12</v>
       </c>
       <c r="B313">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C313">
         <v>1.6269</v>
@@ -7393,7 +7573,7 @@
         <v>13</v>
       </c>
       <c r="B314">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C314">
         <v>1.4965999999999999</v>
@@ -7416,7 +7596,7 @@
         <v>14</v>
       </c>
       <c r="B315">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C315">
         <v>1.3423</v>
@@ -7439,7 +7619,7 @@
         <v>15</v>
       </c>
       <c r="B316">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C316">
         <v>1.1171</v>
@@ -7462,7 +7642,7 @@
         <v>16</v>
       </c>
       <c r="B317">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C317">
         <v>1.3292999999999999</v>
@@ -7485,7 +7665,7 @@
         <v>17</v>
       </c>
       <c r="B318">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C318">
         <v>1.8481000000000001</v>
@@ -7508,7 +7688,7 @@
         <v>18</v>
       </c>
       <c r="B319">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C319">
         <v>1.5109999999999999</v>
@@ -7531,7 +7711,7 @@
         <v>19</v>
       </c>
       <c r="B320">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C320">
         <v>1.268</v>
@@ -7554,7 +7734,7 @@
         <v>20</v>
       </c>
       <c r="B321">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C321">
         <v>1.2796000000000001</v>
@@ -7577,7 +7757,7 @@
         <v>21</v>
       </c>
       <c r="B322">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C322">
         <v>1.0662</v>
@@ -7600,7 +7780,7 @@
         <v>22</v>
       </c>
       <c r="B323">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C323">
         <v>1.2577</v>
@@ -7623,7 +7803,7 @@
         <v>23</v>
       </c>
       <c r="B324">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C324">
         <v>1.4059999999999999</v>
@@ -7646,7 +7826,7 @@
         <v>24</v>
       </c>
       <c r="B325">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C325">
         <v>1.2041999999999999</v>
@@ -7669,7 +7849,7 @@
         <v>25</v>
       </c>
       <c r="B326">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C326">
         <v>1.4975000000000001</v>
@@ -7692,7 +7872,7 @@
         <v>26</v>
       </c>
       <c r="B327">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C327">
         <v>1.0647</v>
@@ -7715,7 +7895,7 @@
         <v>27</v>
       </c>
       <c r="B328">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C328">
         <v>1.3561000000000001</v>
@@ -7738,7 +7918,7 @@
         <v>28</v>
       </c>
       <c r="B329">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C329">
         <v>1.6283000000000001</v>
@@ -7801,7 +7981,7 @@
         <v>1</v>
       </c>
       <c r="B332">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="C332">
         <v>2.2706</v>
@@ -7824,7 +8004,7 @@
         <v>2</v>
       </c>
       <c r="B333">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="C333">
         <v>1.8347</v>
@@ -7847,7 +8027,7 @@
         <v>3</v>
       </c>
       <c r="B334">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="C334">
         <v>2.4495</v>
@@ -7870,7 +8050,7 @@
         <v>4</v>
       </c>
       <c r="B335">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="C335">
         <v>1.1529</v>
@@ -7893,7 +8073,7 @@
         <v>5</v>
       </c>
       <c r="B336">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C336">
         <v>1.0942000000000001</v>
@@ -7916,7 +8096,7 @@
         <v>6</v>
       </c>
       <c r="B337">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C337">
         <v>2.1869000000000001</v>
@@ -7939,7 +8119,7 @@
         <v>7</v>
       </c>
       <c r="B338">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C338">
         <v>1.9016999999999999</v>
@@ -7962,7 +8142,7 @@
         <v>8</v>
       </c>
       <c r="B339">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C339">
         <v>1.0911999999999999</v>
@@ -7985,7 +8165,7 @@
         <v>9</v>
       </c>
       <c r="B340">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C340">
         <v>1.3306</v>
@@ -8008,7 +8188,7 @@
         <v>10</v>
       </c>
       <c r="B341">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C341">
         <v>1.3754999999999999</v>
@@ -8031,7 +8211,7 @@
         <v>11</v>
       </c>
       <c r="B342">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C342">
         <v>1.3022</v>
@@ -8054,7 +8234,7 @@
         <v>12</v>
       </c>
       <c r="B343">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C343">
         <v>1.6269</v>
@@ -8077,7 +8257,7 @@
         <v>13</v>
       </c>
       <c r="B344">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C344">
         <v>1.4965999999999999</v>
@@ -8100,7 +8280,7 @@
         <v>14</v>
       </c>
       <c r="B345">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C345">
         <v>1.3423</v>
@@ -8123,7 +8303,7 @@
         <v>15</v>
       </c>
       <c r="B346">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C346">
         <v>1.1171</v>
@@ -8146,7 +8326,7 @@
         <v>16</v>
       </c>
       <c r="B347">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C347">
         <v>1.3292999999999999</v>
@@ -8169,7 +8349,7 @@
         <v>17</v>
       </c>
       <c r="B348">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C348">
         <v>1.8481000000000001</v>
@@ -8192,7 +8372,7 @@
         <v>18</v>
       </c>
       <c r="B349">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C349">
         <v>1.5109999999999999</v>
@@ -8215,7 +8395,7 @@
         <v>19</v>
       </c>
       <c r="B350">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C350">
         <v>1.268</v>
@@ -8238,7 +8418,7 @@
         <v>20</v>
       </c>
       <c r="B351">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C351">
         <v>1.2796000000000001</v>
@@ -8261,7 +8441,7 @@
         <v>21</v>
       </c>
       <c r="B352">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C352">
         <v>1.0662</v>
@@ -8284,7 +8464,7 @@
         <v>22</v>
       </c>
       <c r="B353">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C353">
         <v>1.2577</v>
@@ -8307,7 +8487,7 @@
         <v>23</v>
       </c>
       <c r="B354">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C354">
         <v>1.4059999999999999</v>
@@ -8330,7 +8510,7 @@
         <v>24</v>
       </c>
       <c r="B355">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C355">
         <v>1.2041999999999999</v>
@@ -8353,7 +8533,7 @@
         <v>25</v>
       </c>
       <c r="B356">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C356">
         <v>1.4975000000000001</v>
@@ -8376,7 +8556,7 @@
         <v>26</v>
       </c>
       <c r="B357">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C357">
         <v>1.0647</v>
@@ -8399,7 +8579,7 @@
         <v>27</v>
       </c>
       <c r="B358">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C358">
         <v>1.3561000000000001</v>
@@ -8422,7 +8602,7 @@
         <v>28</v>
       </c>
       <c r="B359">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C359">
         <v>1.6283000000000001</v>
@@ -8485,7 +8665,7 @@
         <v>1</v>
       </c>
       <c r="B362">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="C362">
         <v>2.2706</v>
@@ -8508,7 +8688,7 @@
         <v>2</v>
       </c>
       <c r="B363">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="C363">
         <v>1.8347</v>
@@ -8531,7 +8711,7 @@
         <v>3</v>
       </c>
       <c r="B364">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="C364">
         <v>2.4495</v>
@@ -8554,7 +8734,7 @@
         <v>4</v>
       </c>
       <c r="B365">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="C365">
         <v>1.1529</v>
@@ -8577,7 +8757,7 @@
         <v>5</v>
       </c>
       <c r="B366">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C366">
         <v>1.0942000000000001</v>
@@ -8600,7 +8780,7 @@
         <v>6</v>
       </c>
       <c r="B367">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C367">
         <v>2.1869000000000001</v>
@@ -8623,7 +8803,7 @@
         <v>7</v>
       </c>
       <c r="B368">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C368">
         <v>1.9016999999999999</v>
@@ -8646,7 +8826,7 @@
         <v>8</v>
       </c>
       <c r="B369">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C369">
         <v>1.0911999999999999</v>
@@ -8669,7 +8849,7 @@
         <v>9</v>
       </c>
       <c r="B370">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C370">
         <v>1.3306</v>
@@ -8692,7 +8872,7 @@
         <v>10</v>
       </c>
       <c r="B371">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C371">
         <v>1.3754999999999999</v>
@@ -8715,7 +8895,7 @@
         <v>11</v>
       </c>
       <c r="B372">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C372">
         <v>1.3022</v>
@@ -8738,7 +8918,7 @@
         <v>12</v>
       </c>
       <c r="B373">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C373">
         <v>1.6269</v>
@@ -8761,7 +8941,7 @@
         <v>13</v>
       </c>
       <c r="B374">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C374">
         <v>1.4965999999999999</v>
@@ -8784,7 +8964,7 @@
         <v>14</v>
       </c>
       <c r="B375">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C375">
         <v>1.3423</v>
@@ -8807,7 +8987,7 @@
         <v>15</v>
       </c>
       <c r="B376">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C376">
         <v>1.1171</v>
@@ -8830,7 +9010,7 @@
         <v>16</v>
       </c>
       <c r="B377">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C377">
         <v>1.3292999999999999</v>
@@ -8853,7 +9033,7 @@
         <v>17</v>
       </c>
       <c r="B378">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C378">
         <v>1.8481000000000001</v>
@@ -8876,7 +9056,7 @@
         <v>18</v>
       </c>
       <c r="B379">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C379">
         <v>1.5109999999999999</v>
@@ -8899,7 +9079,7 @@
         <v>19</v>
       </c>
       <c r="B380">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C380">
         <v>1.268</v>
@@ -8922,7 +9102,7 @@
         <v>20</v>
       </c>
       <c r="B381">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C381">
         <v>1.2796000000000001</v>
@@ -8945,7 +9125,7 @@
         <v>21</v>
       </c>
       <c r="B382">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C382">
         <v>1.0662</v>
@@ -8968,7 +9148,7 @@
         <v>22</v>
       </c>
       <c r="B383">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C383">
         <v>1.2577</v>
@@ -8991,7 +9171,7 @@
         <v>23</v>
       </c>
       <c r="B384">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C384">
         <v>1.4059999999999999</v>
@@ -9014,7 +9194,7 @@
         <v>24</v>
       </c>
       <c r="B385">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C385">
         <v>1.2041999999999999</v>
@@ -9037,7 +9217,7 @@
         <v>25</v>
       </c>
       <c r="B386">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C386">
         <v>1.4975000000000001</v>
@@ -9060,7 +9240,7 @@
         <v>26</v>
       </c>
       <c r="B387">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C387">
         <v>1.0647</v>
@@ -9083,7 +9263,7 @@
         <v>27</v>
       </c>
       <c r="B388">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C388">
         <v>1.3561000000000001</v>
@@ -9106,7 +9286,7 @@
         <v>28</v>
       </c>
       <c r="B389">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C389">
         <v>1.6283000000000001</v>
@@ -9169,7 +9349,7 @@
         <v>1</v>
       </c>
       <c r="B392">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="C392">
         <v>2.2706</v>
@@ -9192,7 +9372,7 @@
         <v>2</v>
       </c>
       <c r="B393">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="C393">
         <v>1.8347</v>
@@ -9215,7 +9395,7 @@
         <v>3</v>
       </c>
       <c r="B394">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="C394">
         <v>2.4495</v>
@@ -9238,7 +9418,7 @@
         <v>4</v>
       </c>
       <c r="B395">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="C395">
         <v>1.1529</v>
@@ -9261,7 +9441,7 @@
         <v>5</v>
       </c>
       <c r="B396">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C396">
         <v>1.0942000000000001</v>
@@ -9284,7 +9464,7 @@
         <v>6</v>
       </c>
       <c r="B397">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C397">
         <v>2.1869000000000001</v>
@@ -9307,7 +9487,7 @@
         <v>7</v>
       </c>
       <c r="B398">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C398">
         <v>1.9016999999999999</v>
@@ -9330,7 +9510,7 @@
         <v>8</v>
       </c>
       <c r="B399">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C399">
         <v>1.0911999999999999</v>
@@ -9353,7 +9533,7 @@
         <v>9</v>
       </c>
       <c r="B400">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C400">
         <v>1.3306</v>
@@ -9376,7 +9556,7 @@
         <v>10</v>
       </c>
       <c r="B401">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C401">
         <v>1.3754999999999999</v>
@@ -9399,7 +9579,7 @@
         <v>11</v>
       </c>
       <c r="B402">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C402">
         <v>1.3022</v>
@@ -9422,7 +9602,7 @@
         <v>12</v>
       </c>
       <c r="B403">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C403">
         <v>1.6269</v>
@@ -9445,7 +9625,7 @@
         <v>13</v>
       </c>
       <c r="B404">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C404">
         <v>1.4965999999999999</v>
@@ -9468,7 +9648,7 @@
         <v>14</v>
       </c>
       <c r="B405">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C405">
         <v>1.3423</v>
@@ -9491,7 +9671,7 @@
         <v>15</v>
       </c>
       <c r="B406">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C406">
         <v>1.1171</v>
@@ -9514,7 +9694,7 @@
         <v>16</v>
       </c>
       <c r="B407">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C407">
         <v>1.3292999999999999</v>
@@ -9537,7 +9717,7 @@
         <v>17</v>
       </c>
       <c r="B408">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C408">
         <v>1.8481000000000001</v>
@@ -9560,7 +9740,7 @@
         <v>18</v>
       </c>
       <c r="B409">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C409">
         <v>1.5109999999999999</v>
@@ -9583,7 +9763,7 @@
         <v>19</v>
       </c>
       <c r="B410">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C410">
         <v>1.268</v>
@@ -9606,7 +9786,7 @@
         <v>20</v>
       </c>
       <c r="B411">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C411">
         <v>1.2796000000000001</v>
@@ -9629,7 +9809,7 @@
         <v>21</v>
       </c>
       <c r="B412">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C412">
         <v>1.0662</v>
@@ -9652,7 +9832,7 @@
         <v>22</v>
       </c>
       <c r="B413">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C413">
         <v>1.2577</v>
@@ -9675,7 +9855,7 @@
         <v>23</v>
       </c>
       <c r="B414">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C414">
         <v>1.4059999999999999</v>
@@ -9698,7 +9878,7 @@
         <v>24</v>
       </c>
       <c r="B415">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C415">
         <v>1.2041999999999999</v>
@@ -9721,7 +9901,7 @@
         <v>25</v>
       </c>
       <c r="B416">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C416">
         <v>1.4975000000000001</v>
@@ -9744,7 +9924,7 @@
         <v>26</v>
       </c>
       <c r="B417">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C417">
         <v>1.0647</v>
@@ -9767,7 +9947,7 @@
         <v>27</v>
       </c>
       <c r="B418">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C418">
         <v>1.3561000000000001</v>
@@ -9790,7 +9970,7 @@
         <v>28</v>
       </c>
       <c r="B419">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C419">
         <v>1.6283000000000001</v>
@@ -9805,7 +9985,7 @@
         <v>1</v>
       </c>
       <c r="G419">
-        <v>0.85</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
@@ -9853,7 +10033,7 @@
         <v>1</v>
       </c>
       <c r="B422">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="C422">
         <v>2.2706</v>
@@ -9876,7 +10056,7 @@
         <v>2</v>
       </c>
       <c r="B423">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="C423">
         <v>1.8347</v>
@@ -9899,7 +10079,7 @@
         <v>3</v>
       </c>
       <c r="B424">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="C424">
         <v>2.4495</v>
@@ -9922,7 +10102,7 @@
         <v>4</v>
       </c>
       <c r="B425">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="C425">
         <v>1.1529</v>
@@ -9945,7 +10125,7 @@
         <v>5</v>
       </c>
       <c r="B426">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C426">
         <v>1.0942000000000001</v>
@@ -9968,7 +10148,7 @@
         <v>6</v>
       </c>
       <c r="B427">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C427">
         <v>2.1869000000000001</v>
@@ -9991,7 +10171,7 @@
         <v>7</v>
       </c>
       <c r="B428">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C428">
         <v>1.9016999999999999</v>
@@ -10014,7 +10194,7 @@
         <v>8</v>
       </c>
       <c r="B429">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C429">
         <v>1.0911999999999999</v>
@@ -10037,7 +10217,7 @@
         <v>9</v>
       </c>
       <c r="B430">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C430">
         <v>1.3306</v>
@@ -10060,7 +10240,7 @@
         <v>10</v>
       </c>
       <c r="B431">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C431">
         <v>1.3754999999999999</v>
@@ -10083,7 +10263,7 @@
         <v>11</v>
       </c>
       <c r="B432">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C432">
         <v>1.3022</v>
@@ -10106,7 +10286,7 @@
         <v>12</v>
       </c>
       <c r="B433">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C433">
         <v>1.6269</v>
@@ -10129,7 +10309,7 @@
         <v>13</v>
       </c>
       <c r="B434">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C434">
         <v>1.4965999999999999</v>
@@ -10152,7 +10332,7 @@
         <v>14</v>
       </c>
       <c r="B435">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C435">
         <v>1.3423</v>
@@ -10175,7 +10355,7 @@
         <v>15</v>
       </c>
       <c r="B436">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C436">
         <v>1.1171</v>
@@ -10198,7 +10378,7 @@
         <v>16</v>
       </c>
       <c r="B437">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C437">
         <v>1.3292999999999999</v>
@@ -10221,7 +10401,7 @@
         <v>17</v>
       </c>
       <c r="B438">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C438">
         <v>1.8481000000000001</v>
@@ -10244,7 +10424,7 @@
         <v>18</v>
       </c>
       <c r="B439">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C439">
         <v>1.5109999999999999</v>
@@ -10267,7 +10447,7 @@
         <v>19</v>
       </c>
       <c r="B440">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C440">
         <v>1.268</v>
@@ -10290,7 +10470,7 @@
         <v>20</v>
       </c>
       <c r="B441">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C441">
         <v>1.2796000000000001</v>
@@ -10313,7 +10493,7 @@
         <v>21</v>
       </c>
       <c r="B442">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C442">
         <v>1.0662</v>
@@ -10336,7 +10516,7 @@
         <v>22</v>
       </c>
       <c r="B443">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C443">
         <v>1.2577</v>
@@ -10359,7 +10539,7 @@
         <v>23</v>
       </c>
       <c r="B444">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C444">
         <v>1.4059999999999999</v>
@@ -10382,7 +10562,7 @@
         <v>24</v>
       </c>
       <c r="B445">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C445">
         <v>1.2041999999999999</v>
@@ -10405,7 +10585,7 @@
         <v>25</v>
       </c>
       <c r="B446">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C446">
         <v>1.4975000000000001</v>
@@ -10428,7 +10608,7 @@
         <v>26</v>
       </c>
       <c r="B447">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C447">
         <v>1.0647</v>
@@ -10451,7 +10631,7 @@
         <v>27</v>
       </c>
       <c r="B448">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C448">
         <v>1.3561000000000001</v>
@@ -10474,7 +10654,7 @@
         <v>28</v>
       </c>
       <c r="B449">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C449">
         <v>1.6283000000000001</v>
@@ -10537,7 +10717,7 @@
         <v>1</v>
       </c>
       <c r="B452">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="C452">
         <v>2.2706</v>
@@ -10560,7 +10740,7 @@
         <v>2</v>
       </c>
       <c r="B453">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="C453">
         <v>1.8347</v>
@@ -10583,7 +10763,7 @@
         <v>3</v>
       </c>
       <c r="B454">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="C454">
         <v>2.4495</v>
@@ -10606,7 +10786,7 @@
         <v>4</v>
       </c>
       <c r="B455">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="C455">
         <v>1.1529</v>
@@ -10629,7 +10809,7 @@
         <v>5</v>
       </c>
       <c r="B456">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C456">
         <v>1.0942000000000001</v>
@@ -10652,7 +10832,7 @@
         <v>6</v>
       </c>
       <c r="B457">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C457">
         <v>2.1869000000000001</v>
@@ -10675,7 +10855,7 @@
         <v>7</v>
       </c>
       <c r="B458">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C458">
         <v>1.9016999999999999</v>
@@ -10698,7 +10878,7 @@
         <v>8</v>
       </c>
       <c r="B459">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C459">
         <v>1.0911999999999999</v>
@@ -10721,7 +10901,7 @@
         <v>9</v>
       </c>
       <c r="B460">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C460">
         <v>1.3306</v>
@@ -10744,7 +10924,7 @@
         <v>10</v>
       </c>
       <c r="B461">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C461">
         <v>1.3754999999999999</v>
@@ -10767,7 +10947,7 @@
         <v>11</v>
       </c>
       <c r="B462">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C462">
         <v>1.3022</v>
@@ -10790,7 +10970,7 @@
         <v>12</v>
       </c>
       <c r="B463">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C463">
         <v>1.6269</v>
@@ -10813,7 +10993,7 @@
         <v>13</v>
       </c>
       <c r="B464">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C464">
         <v>1.4965999999999999</v>
@@ -10836,7 +11016,7 @@
         <v>14</v>
       </c>
       <c r="B465">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C465">
         <v>1.3423</v>
@@ -10859,7 +11039,7 @@
         <v>15</v>
       </c>
       <c r="B466">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C466">
         <v>1.1171</v>
@@ -10882,7 +11062,7 @@
         <v>16</v>
       </c>
       <c r="B467">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C467">
         <v>1.3292999999999999</v>
@@ -10905,7 +11085,7 @@
         <v>17</v>
       </c>
       <c r="B468">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C468">
         <v>1.8481000000000001</v>
@@ -10928,7 +11108,7 @@
         <v>18</v>
       </c>
       <c r="B469">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C469">
         <v>1.5109999999999999</v>
@@ -10951,7 +11131,7 @@
         <v>19</v>
       </c>
       <c r="B470">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C470">
         <v>1.268</v>
@@ -10974,7 +11154,7 @@
         <v>20</v>
       </c>
       <c r="B471">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C471">
         <v>1.2796000000000001</v>
@@ -10997,7 +11177,7 @@
         <v>21</v>
       </c>
       <c r="B472">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C472">
         <v>1.0662</v>
@@ -11020,7 +11200,7 @@
         <v>22</v>
       </c>
       <c r="B473">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C473">
         <v>1.2577</v>
@@ -11043,7 +11223,7 @@
         <v>23</v>
       </c>
       <c r="B474">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C474">
         <v>1.4059999999999999</v>
@@ -11066,7 +11246,7 @@
         <v>24</v>
       </c>
       <c r="B475">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C475">
         <v>1.2041999999999999</v>
@@ -11089,7 +11269,7 @@
         <v>25</v>
       </c>
       <c r="B476">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C476">
         <v>1.4975000000000001</v>
@@ -11112,7 +11292,7 @@
         <v>26</v>
       </c>
       <c r="B477">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C477">
         <v>1.0647</v>
@@ -11135,7 +11315,7 @@
         <v>27</v>
       </c>
       <c r="B478">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C478">
         <v>1.3561000000000001</v>
@@ -11158,7 +11338,7 @@
         <v>28</v>
       </c>
       <c r="B479">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C479">
         <v>1.6283000000000001</v>
@@ -11221,7 +11401,7 @@
         <v>1</v>
       </c>
       <c r="B482">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="C482">
         <v>2.2706</v>
@@ -11244,7 +11424,7 @@
         <v>2</v>
       </c>
       <c r="B483">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="C483">
         <v>1.8347</v>
@@ -11267,7 +11447,7 @@
         <v>3</v>
       </c>
       <c r="B484">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="C484">
         <v>2.4495</v>
@@ -11290,7 +11470,7 @@
         <v>4</v>
       </c>
       <c r="B485">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="C485">
         <v>1.1529</v>
@@ -11313,7 +11493,7 @@
         <v>5</v>
       </c>
       <c r="B486">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C486">
         <v>1.0942000000000001</v>
@@ -11336,7 +11516,7 @@
         <v>6</v>
       </c>
       <c r="B487">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C487">
         <v>2.1869000000000001</v>
@@ -11359,7 +11539,7 @@
         <v>7</v>
       </c>
       <c r="B488">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C488">
         <v>1.9016999999999999</v>
@@ -11382,7 +11562,7 @@
         <v>8</v>
       </c>
       <c r="B489">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C489">
         <v>1.0911999999999999</v>
@@ -11405,7 +11585,7 @@
         <v>9</v>
       </c>
       <c r="B490">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C490">
         <v>1.3306</v>
@@ -11428,7 +11608,7 @@
         <v>10</v>
       </c>
       <c r="B491">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C491">
         <v>1.3754999999999999</v>
@@ -11451,7 +11631,7 @@
         <v>11</v>
       </c>
       <c r="B492">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C492">
         <v>1.3022</v>
@@ -11474,7 +11654,7 @@
         <v>12</v>
       </c>
       <c r="B493">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C493">
         <v>1.6269</v>
@@ -11497,7 +11677,7 @@
         <v>13</v>
       </c>
       <c r="B494">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C494">
         <v>1.4965999999999999</v>
@@ -11520,7 +11700,7 @@
         <v>14</v>
       </c>
       <c r="B495">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C495">
         <v>1.3423</v>
@@ -11543,7 +11723,7 @@
         <v>15</v>
       </c>
       <c r="B496">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C496">
         <v>1.1171</v>
@@ -11566,7 +11746,7 @@
         <v>16</v>
       </c>
       <c r="B497">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C497">
         <v>1.3292999999999999</v>
@@ -11589,7 +11769,7 @@
         <v>17</v>
       </c>
       <c r="B498">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C498">
         <v>1.8481000000000001</v>
@@ -11612,7 +11792,7 @@
         <v>18</v>
       </c>
       <c r="B499">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C499">
         <v>1.5109999999999999</v>
@@ -11635,7 +11815,7 @@
         <v>19</v>
       </c>
       <c r="B500">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C500">
         <v>1.268</v>
@@ -11658,7 +11838,7 @@
         <v>20</v>
       </c>
       <c r="B501">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C501">
         <v>1.2796000000000001</v>
@@ -11681,7 +11861,7 @@
         <v>21</v>
       </c>
       <c r="B502">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C502">
         <v>1.0662</v>
@@ -11704,7 +11884,7 @@
         <v>22</v>
       </c>
       <c r="B503">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C503">
         <v>1.2577</v>
@@ -11727,7 +11907,7 @@
         <v>23</v>
       </c>
       <c r="B504">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C504">
         <v>1.4059999999999999</v>
@@ -11750,7 +11930,7 @@
         <v>24</v>
       </c>
       <c r="B505">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C505">
         <v>1.2041999999999999</v>
@@ -11773,7 +11953,7 @@
         <v>25</v>
       </c>
       <c r="B506">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C506">
         <v>1.4975000000000001</v>
@@ -11796,7 +11976,7 @@
         <v>26</v>
       </c>
       <c r="B507">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C507">
         <v>1.0647</v>
@@ -11819,7 +11999,7 @@
         <v>27</v>
       </c>
       <c r="B508">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C508">
         <v>1.3561000000000001</v>
@@ -11842,7 +12022,7 @@
         <v>28</v>
       </c>
       <c r="B509">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C509">
         <v>1.6283000000000001</v>
@@ -11905,7 +12085,7 @@
         <v>1</v>
       </c>
       <c r="B512">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="C512">
         <v>2.2706</v>
@@ -11928,7 +12108,7 @@
         <v>2</v>
       </c>
       <c r="B513">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="C513">
         <v>1.8347</v>
@@ -11951,7 +12131,7 @@
         <v>3</v>
       </c>
       <c r="B514">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="C514">
         <v>2.4495</v>
@@ -11974,7 +12154,7 @@
         <v>4</v>
       </c>
       <c r="B515">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="C515">
         <v>1.1529</v>
@@ -11997,7 +12177,7 @@
         <v>5</v>
       </c>
       <c r="B516">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C516">
         <v>1.0942000000000001</v>
@@ -12020,7 +12200,7 @@
         <v>6</v>
       </c>
       <c r="B517">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C517">
         <v>2.1869000000000001</v>
@@ -12043,7 +12223,7 @@
         <v>7</v>
       </c>
       <c r="B518">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C518">
         <v>1.9016999999999999</v>
@@ -12066,7 +12246,7 @@
         <v>8</v>
       </c>
       <c r="B519">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C519">
         <v>1.0911999999999999</v>
@@ -12089,7 +12269,7 @@
         <v>9</v>
       </c>
       <c r="B520">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C520">
         <v>1.3306</v>
@@ -12112,7 +12292,7 @@
         <v>10</v>
       </c>
       <c r="B521">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C521">
         <v>1.3754999999999999</v>
@@ -12135,7 +12315,7 @@
         <v>11</v>
       </c>
       <c r="B522">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C522">
         <v>1.3022</v>
@@ -12158,7 +12338,7 @@
         <v>12</v>
       </c>
       <c r="B523">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C523">
         <v>1.6269</v>
@@ -12181,7 +12361,7 @@
         <v>13</v>
       </c>
       <c r="B524">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C524">
         <v>1.4965999999999999</v>
@@ -12204,7 +12384,7 @@
         <v>14</v>
       </c>
       <c r="B525">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C525">
         <v>1.3423</v>
@@ -12227,7 +12407,7 @@
         <v>15</v>
       </c>
       <c r="B526">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C526">
         <v>1.1171</v>
@@ -12250,7 +12430,7 @@
         <v>16</v>
       </c>
       <c r="B527">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C527">
         <v>1.3292999999999999</v>
@@ -12273,7 +12453,7 @@
         <v>17</v>
       </c>
       <c r="B528">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C528">
         <v>1.8481000000000001</v>
@@ -12296,7 +12476,7 @@
         <v>18</v>
       </c>
       <c r="B529">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C529">
         <v>1.5109999999999999</v>
@@ -12319,7 +12499,7 @@
         <v>19</v>
       </c>
       <c r="B530">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C530">
         <v>1.268</v>
@@ -12342,7 +12522,7 @@
         <v>20</v>
       </c>
       <c r="B531">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C531">
         <v>1.2796000000000001</v>
@@ -12365,7 +12545,7 @@
         <v>21</v>
       </c>
       <c r="B532">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C532">
         <v>1.0662</v>
@@ -12388,7 +12568,7 @@
         <v>22</v>
       </c>
       <c r="B533">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C533">
         <v>1.2577</v>
@@ -12411,7 +12591,7 @@
         <v>23</v>
       </c>
       <c r="B534">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C534">
         <v>1.4059999999999999</v>
@@ -12434,7 +12614,7 @@
         <v>24</v>
       </c>
       <c r="B535">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C535">
         <v>1.2041999999999999</v>
@@ -12457,7 +12637,7 @@
         <v>25</v>
       </c>
       <c r="B536">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C536">
         <v>1.4975000000000001</v>
@@ -12480,7 +12660,7 @@
         <v>26</v>
       </c>
       <c r="B537">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C537">
         <v>1.0647</v>
@@ -12503,7 +12683,7 @@
         <v>27</v>
       </c>
       <c r="B538">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C538">
         <v>1.3561000000000001</v>
@@ -12526,7 +12706,7 @@
         <v>28</v>
       </c>
       <c r="B539">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C539">
         <v>1.6283000000000001</v>
@@ -12589,7 +12769,7 @@
         <v>1</v>
       </c>
       <c r="B542">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="C542">
         <v>2.2706</v>
@@ -12612,7 +12792,7 @@
         <v>2</v>
       </c>
       <c r="B543">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="C543">
         <v>1.8347</v>
@@ -12635,7 +12815,7 @@
         <v>3</v>
       </c>
       <c r="B544">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="C544">
         <v>2.4495</v>
@@ -12658,7 +12838,7 @@
         <v>4</v>
       </c>
       <c r="B545">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="C545">
         <v>1.1529</v>
@@ -12681,7 +12861,7 @@
         <v>5</v>
       </c>
       <c r="B546">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C546">
         <v>1.0942000000000001</v>
@@ -12704,7 +12884,7 @@
         <v>6</v>
       </c>
       <c r="B547">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C547">
         <v>2.1869000000000001</v>
@@ -12727,7 +12907,7 @@
         <v>7</v>
       </c>
       <c r="B548">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C548">
         <v>1.9016999999999999</v>
@@ -12750,7 +12930,7 @@
         <v>8</v>
       </c>
       <c r="B549">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C549">
         <v>1.0911999999999999</v>
@@ -12773,7 +12953,7 @@
         <v>9</v>
       </c>
       <c r="B550">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C550">
         <v>1.3306</v>
@@ -12796,7 +12976,7 @@
         <v>10</v>
       </c>
       <c r="B551">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C551">
         <v>1.3754999999999999</v>
@@ -12819,7 +12999,7 @@
         <v>11</v>
       </c>
       <c r="B552">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C552">
         <v>1.3022</v>
@@ -12842,7 +13022,7 @@
         <v>12</v>
       </c>
       <c r="B553">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C553">
         <v>1.6269</v>
@@ -12865,7 +13045,7 @@
         <v>13</v>
       </c>
       <c r="B554">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C554">
         <v>1.4965999999999999</v>
@@ -12888,7 +13068,7 @@
         <v>14</v>
       </c>
       <c r="B555">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C555">
         <v>1.3423</v>
@@ -12911,7 +13091,7 @@
         <v>15</v>
       </c>
       <c r="B556">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C556">
         <v>1.1171</v>
@@ -12934,7 +13114,7 @@
         <v>16</v>
       </c>
       <c r="B557">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C557">
         <v>1.3292999999999999</v>
@@ -12957,7 +13137,7 @@
         <v>17</v>
       </c>
       <c r="B558">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C558">
         <v>1.8481000000000001</v>
@@ -12980,7 +13160,7 @@
         <v>18</v>
       </c>
       <c r="B559">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C559">
         <v>1.5109999999999999</v>
@@ -13003,7 +13183,7 @@
         <v>19</v>
       </c>
       <c r="B560">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C560">
         <v>1.268</v>
@@ -13026,7 +13206,7 @@
         <v>20</v>
       </c>
       <c r="B561">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C561">
         <v>1.2796000000000001</v>
@@ -13049,7 +13229,7 @@
         <v>21</v>
       </c>
       <c r="B562">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C562">
         <v>1.0662</v>
@@ -13072,7 +13252,7 @@
         <v>22</v>
       </c>
       <c r="B563">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C563">
         <v>1.2577</v>
@@ -13095,7 +13275,7 @@
         <v>23</v>
       </c>
       <c r="B564">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C564">
         <v>1.4059999999999999</v>
@@ -13118,7 +13298,7 @@
         <v>24</v>
       </c>
       <c r="B565">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C565">
         <v>1.2041999999999999</v>
@@ -13141,7 +13321,7 @@
         <v>25</v>
       </c>
       <c r="B566">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C566">
         <v>1.4975000000000001</v>
@@ -13164,7 +13344,7 @@
         <v>26</v>
       </c>
       <c r="B567">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C567">
         <v>1.0647</v>
@@ -13187,7 +13367,7 @@
         <v>27</v>
       </c>
       <c r="B568">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C568">
         <v>1.3561000000000001</v>
@@ -13210,7 +13390,7 @@
         <v>28</v>
       </c>
       <c r="B569">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C569">
         <v>1.6283000000000001</v>
@@ -13273,7 +13453,7 @@
         <v>1</v>
       </c>
       <c r="B572">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="C572">
         <v>2.2706</v>
@@ -13296,7 +13476,7 @@
         <v>2</v>
       </c>
       <c r="B573">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="C573">
         <v>1.8347</v>
@@ -13319,7 +13499,7 @@
         <v>3</v>
       </c>
       <c r="B574">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="C574">
         <v>2.4495</v>
@@ -13342,7 +13522,7 @@
         <v>4</v>
       </c>
       <c r="B575">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="C575">
         <v>1.1529</v>
@@ -13365,7 +13545,7 @@
         <v>5</v>
       </c>
       <c r="B576">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C576">
         <v>1.0942000000000001</v>
@@ -13388,7 +13568,7 @@
         <v>6</v>
       </c>
       <c r="B577">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C577">
         <v>2.1869000000000001</v>
@@ -13411,7 +13591,7 @@
         <v>7</v>
       </c>
       <c r="B578">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C578">
         <v>1.9016999999999999</v>
@@ -13434,7 +13614,7 @@
         <v>8</v>
       </c>
       <c r="B579">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C579">
         <v>1.0911999999999999</v>
@@ -13457,7 +13637,7 @@
         <v>9</v>
       </c>
       <c r="B580">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C580">
         <v>1.3306</v>
@@ -13480,7 +13660,7 @@
         <v>10</v>
       </c>
       <c r="B581">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C581">
         <v>1.3754999999999999</v>
@@ -13503,7 +13683,7 @@
         <v>11</v>
       </c>
       <c r="B582">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C582">
         <v>1.3022</v>
@@ -13526,7 +13706,7 @@
         <v>12</v>
       </c>
       <c r="B583">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C583">
         <v>1.6269</v>
@@ -13549,7 +13729,7 @@
         <v>13</v>
       </c>
       <c r="B584">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C584">
         <v>1.4965999999999999</v>
@@ -13572,7 +13752,7 @@
         <v>14</v>
       </c>
       <c r="B585">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C585">
         <v>1.3423</v>
@@ -13592,7 +13772,7 @@
         <v>15</v>
       </c>
       <c r="B586">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C586">
         <v>1.1171</v>
@@ -13615,7 +13795,7 @@
         <v>16</v>
       </c>
       <c r="B587">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C587">
         <v>1.3292999999999999</v>
@@ -13638,7 +13818,7 @@
         <v>17</v>
       </c>
       <c r="B588">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C588">
         <v>1.8481000000000001</v>
@@ -13661,7 +13841,7 @@
         <v>18</v>
       </c>
       <c r="B589">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C589">
         <v>1.5109999999999999</v>
@@ -13684,7 +13864,7 @@
         <v>19</v>
       </c>
       <c r="B590">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C590">
         <v>1.268</v>
@@ -13707,7 +13887,7 @@
         <v>20</v>
       </c>
       <c r="B591">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C591">
         <v>1.2796000000000001</v>
@@ -13730,7 +13910,7 @@
         <v>21</v>
       </c>
       <c r="B592">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C592">
         <v>1.0662</v>
@@ -13753,7 +13933,7 @@
         <v>22</v>
       </c>
       <c r="B593">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C593">
         <v>1.2577</v>
@@ -13776,7 +13956,7 @@
         <v>23</v>
       </c>
       <c r="B594">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C594">
         <v>1.4059999999999999</v>
@@ -13799,7 +13979,7 @@
         <v>24</v>
       </c>
       <c r="B595">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C595">
         <v>1.2041999999999999</v>
@@ -13822,7 +14002,7 @@
         <v>25</v>
       </c>
       <c r="B596">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C596">
         <v>1.4975000000000001</v>
@@ -13845,7 +14025,7 @@
         <v>26</v>
       </c>
       <c r="B597">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C597">
         <v>1.0647</v>
@@ -13868,7 +14048,7 @@
         <v>27</v>
       </c>
       <c r="B598">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C598">
         <v>1.3561000000000001</v>
@@ -13891,7 +14071,7 @@
         <v>28</v>
       </c>
       <c r="B599">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C599">
         <v>1.6283000000000001</v>
@@ -13954,7 +14134,7 @@
         <v>1</v>
       </c>
       <c r="B602">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="C602">
         <v>2.2706</v>
@@ -13977,7 +14157,7 @@
         <v>2</v>
       </c>
       <c r="B603">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="C603">
         <v>1.8347</v>
@@ -14000,7 +14180,7 @@
         <v>3</v>
       </c>
       <c r="B604">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="C604">
         <v>2.4495</v>
@@ -14023,7 +14203,7 @@
         <v>4</v>
       </c>
       <c r="B605">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="C605">
         <v>1.1529</v>
@@ -14046,7 +14226,7 @@
         <v>5</v>
       </c>
       <c r="B606">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C606">
         <v>1.0942000000000001</v>
@@ -14069,7 +14249,7 @@
         <v>6</v>
       </c>
       <c r="B607">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C607">
         <v>2.1869000000000001</v>
@@ -14092,7 +14272,7 @@
         <v>7</v>
       </c>
       <c r="B608">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C608">
         <v>1.9016999999999999</v>
@@ -14115,7 +14295,7 @@
         <v>8</v>
       </c>
       <c r="B609">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C609">
         <v>1.0911999999999999</v>
@@ -14138,7 +14318,7 @@
         <v>9</v>
       </c>
       <c r="B610">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C610">
         <v>1.3306</v>
@@ -14161,7 +14341,7 @@
         <v>10</v>
       </c>
       <c r="B611">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C611">
         <v>1.3754999999999999</v>
@@ -14184,7 +14364,7 @@
         <v>11</v>
       </c>
       <c r="B612">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C612">
         <v>1.3022</v>
@@ -14207,7 +14387,7 @@
         <v>12</v>
       </c>
       <c r="B613">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C613">
         <v>1.6269</v>
@@ -14230,7 +14410,7 @@
         <v>13</v>
       </c>
       <c r="B614">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C614">
         <v>1.4965999999999999</v>
@@ -14253,7 +14433,7 @@
         <v>14</v>
       </c>
       <c r="B615">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C615">
         <v>1.3423</v>
@@ -14276,7 +14456,7 @@
         <v>15</v>
       </c>
       <c r="B616">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C616">
         <v>1.1171</v>
@@ -14299,7 +14479,7 @@
         <v>16</v>
       </c>
       <c r="B617">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C617">
         <v>1.3292999999999999</v>
@@ -14322,7 +14502,7 @@
         <v>17</v>
       </c>
       <c r="B618">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C618">
         <v>1.8481000000000001</v>
@@ -14345,7 +14525,7 @@
         <v>18</v>
       </c>
       <c r="B619">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C619">
         <v>1.5109999999999999</v>
@@ -14368,7 +14548,7 @@
         <v>19</v>
       </c>
       <c r="B620">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C620">
         <v>1.268</v>
@@ -14391,7 +14571,7 @@
         <v>20</v>
       </c>
       <c r="B621">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C621">
         <v>1.2796000000000001</v>
@@ -14414,7 +14594,7 @@
         <v>21</v>
       </c>
       <c r="B622">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C622">
         <v>1.0662</v>
@@ -14437,7 +14617,7 @@
         <v>22</v>
       </c>
       <c r="B623">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C623">
         <v>1.2577</v>
@@ -14460,7 +14640,7 @@
         <v>23</v>
       </c>
       <c r="B624">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C624">
         <v>1.4059999999999999</v>
@@ -14483,7 +14663,7 @@
         <v>24</v>
       </c>
       <c r="B625">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C625">
         <v>1.2041999999999999</v>
@@ -14506,7 +14686,7 @@
         <v>25</v>
       </c>
       <c r="B626">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C626">
         <v>1.4975000000000001</v>
@@ -14529,7 +14709,7 @@
         <v>26</v>
       </c>
       <c r="B627">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C627">
         <v>1.0647</v>
@@ -14552,7 +14732,7 @@
         <v>27</v>
       </c>
       <c r="B628">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C628">
         <v>1.3561000000000001</v>
@@ -14575,7 +14755,7 @@
         <v>28</v>
       </c>
       <c r="B629">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C629">
         <v>1.6283000000000001</v>
@@ -14638,7 +14818,7 @@
         <v>1</v>
       </c>
       <c r="B632">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="C632">
         <v>2.2706</v>
@@ -14661,7 +14841,7 @@
         <v>2</v>
       </c>
       <c r="B633">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="C633">
         <v>1.8347</v>
@@ -14684,7 +14864,7 @@
         <v>3</v>
       </c>
       <c r="B634">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="C634">
         <v>2.4495</v>
@@ -14707,7 +14887,7 @@
         <v>4</v>
       </c>
       <c r="B635">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="C635">
         <v>1.1529</v>
@@ -14730,7 +14910,7 @@
         <v>5</v>
       </c>
       <c r="B636">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C636">
         <v>1.0942000000000001</v>
@@ -14753,7 +14933,7 @@
         <v>6</v>
       </c>
       <c r="B637">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C637">
         <v>2.1869000000000001</v>
@@ -14776,7 +14956,7 @@
         <v>7</v>
       </c>
       <c r="B638">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C638">
         <v>1.9016999999999999</v>
@@ -14799,7 +14979,7 @@
         <v>8</v>
       </c>
       <c r="B639">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C639">
         <v>1.0911999999999999</v>
@@ -14822,7 +15002,7 @@
         <v>9</v>
       </c>
       <c r="B640">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C640">
         <v>1.3306</v>
@@ -14845,7 +15025,7 @@
         <v>10</v>
       </c>
       <c r="B641">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C641">
         <v>1.3754999999999999</v>
@@ -14868,7 +15048,7 @@
         <v>11</v>
       </c>
       <c r="B642">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C642">
         <v>1.3022</v>
@@ -14891,7 +15071,7 @@
         <v>12</v>
       </c>
       <c r="B643">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C643">
         <v>1.6269</v>
@@ -14914,7 +15094,7 @@
         <v>13</v>
       </c>
       <c r="B644">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C644">
         <v>1.4965999999999999</v>
@@ -14937,7 +15117,7 @@
         <v>14</v>
       </c>
       <c r="B645">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C645">
         <v>1.3423</v>
@@ -14960,7 +15140,7 @@
         <v>15</v>
       </c>
       <c r="B646">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C646">
         <v>1.1171</v>
@@ -14983,7 +15163,7 @@
         <v>16</v>
       </c>
       <c r="B647">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C647">
         <v>1.3292999999999999</v>
@@ -15006,7 +15186,7 @@
         <v>17</v>
       </c>
       <c r="B648">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C648">
         <v>1.8481000000000001</v>
@@ -15029,7 +15209,7 @@
         <v>18</v>
       </c>
       <c r="B649">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C649">
         <v>1.5109999999999999</v>
@@ -15052,7 +15232,7 @@
         <v>19</v>
       </c>
       <c r="B650">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C650">
         <v>1.268</v>
@@ -15075,7 +15255,7 @@
         <v>20</v>
       </c>
       <c r="B651">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C651">
         <v>1.2796000000000001</v>
@@ -15098,7 +15278,7 @@
         <v>21</v>
       </c>
       <c r="B652">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C652">
         <v>1.0662</v>
@@ -15121,7 +15301,7 @@
         <v>22</v>
       </c>
       <c r="B653">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C653">
         <v>1.2577</v>
@@ -15144,7 +15324,7 @@
         <v>23</v>
       </c>
       <c r="B654">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C654">
         <v>1.4059999999999999</v>
@@ -15167,7 +15347,7 @@
         <v>24</v>
       </c>
       <c r="B655">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C655">
         <v>1.2041999999999999</v>
@@ -15190,7 +15370,7 @@
         <v>25</v>
       </c>
       <c r="B656">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C656">
         <v>1.4975000000000001</v>
@@ -15213,7 +15393,7 @@
         <v>26</v>
       </c>
       <c r="B657">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C657">
         <v>1.0647</v>
@@ -15236,7 +15416,7 @@
         <v>27</v>
       </c>
       <c r="B658">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C658">
         <v>1.3561000000000001</v>
@@ -15259,7 +15439,7 @@
         <v>28</v>
       </c>
       <c r="B659">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C659">
         <v>1.6283000000000001</v>
@@ -15322,7 +15502,7 @@
         <v>1</v>
       </c>
       <c r="B662">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="C662">
         <v>2.2706</v>
@@ -15342,7 +15522,7 @@
         <v>2</v>
       </c>
       <c r="B663">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="C663">
         <v>1.8347</v>
@@ -15362,7 +15542,7 @@
         <v>3</v>
       </c>
       <c r="B664">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="C664">
         <v>2.4495</v>
@@ -15382,7 +15562,7 @@
         <v>4</v>
       </c>
       <c r="B665">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="C665">
         <v>1.1529</v>
@@ -15402,7 +15582,7 @@
         <v>5</v>
       </c>
       <c r="B666">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C666">
         <v>1.0942000000000001</v>
@@ -15422,7 +15602,7 @@
         <v>6</v>
       </c>
       <c r="B667">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C667">
         <v>2.1869000000000001</v>
@@ -15442,7 +15622,7 @@
         <v>7</v>
       </c>
       <c r="B668">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C668">
         <v>1.9016999999999999</v>
@@ -15462,7 +15642,7 @@
         <v>8</v>
       </c>
       <c r="B669">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C669">
         <v>1.0911999999999999</v>
@@ -15482,7 +15662,7 @@
         <v>9</v>
       </c>
       <c r="B670">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C670">
         <v>1.3306</v>
@@ -15502,7 +15682,7 @@
         <v>10</v>
       </c>
       <c r="B671">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C671">
         <v>1.3754999999999999</v>
@@ -15522,7 +15702,7 @@
         <v>11</v>
       </c>
       <c r="B672">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C672">
         <v>1.3022</v>
@@ -15542,7 +15722,7 @@
         <v>12</v>
       </c>
       <c r="B673">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C673">
         <v>1.6269</v>
@@ -15562,7 +15742,7 @@
         <v>13</v>
       </c>
       <c r="B674">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C674">
         <v>1.4965999999999999</v>
@@ -15582,7 +15762,7 @@
         <v>14</v>
       </c>
       <c r="B675">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C675">
         <v>1.3423</v>
@@ -15602,7 +15782,7 @@
         <v>15</v>
       </c>
       <c r="B676">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C676">
         <v>1.1171</v>
@@ -15622,7 +15802,7 @@
         <v>16</v>
       </c>
       <c r="B677">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C677">
         <v>1.3292999999999999</v>
@@ -15642,7 +15822,7 @@
         <v>17</v>
       </c>
       <c r="B678">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C678">
         <v>1.8481000000000001</v>
@@ -15662,7 +15842,7 @@
         <v>18</v>
       </c>
       <c r="B679">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C679">
         <v>1.5109999999999999</v>
@@ -15682,7 +15862,7 @@
         <v>19</v>
       </c>
       <c r="B680">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C680">
         <v>1.268</v>
@@ -15702,7 +15882,7 @@
         <v>20</v>
       </c>
       <c r="B681">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C681">
         <v>1.2796000000000001</v>
@@ -15722,7 +15902,7 @@
         <v>21</v>
       </c>
       <c r="B682">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C682">
         <v>1.0662</v>
@@ -15742,7 +15922,7 @@
         <v>22</v>
       </c>
       <c r="B683">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C683">
         <v>1.2577</v>
@@ -15762,7 +15942,7 @@
         <v>23</v>
       </c>
       <c r="B684">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C684">
         <v>1.4059999999999999</v>
@@ -15782,7 +15962,7 @@
         <v>24</v>
       </c>
       <c r="B685">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C685">
         <v>1.2041999999999999</v>
@@ -15802,7 +15982,7 @@
         <v>25</v>
       </c>
       <c r="B686">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C686">
         <v>1.4975000000000001</v>
@@ -15822,7 +16002,7 @@
         <v>26</v>
       </c>
       <c r="B687">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C687">
         <v>1.0647</v>
@@ -15842,7 +16022,7 @@
         <v>27</v>
       </c>
       <c r="B688">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C688">
         <v>1.3561000000000001</v>
@@ -15862,7 +16042,7 @@
         <v>28</v>
       </c>
       <c r="B689">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C689">
         <v>1.6283000000000001</v>
@@ -15916,7 +16096,7 @@
         <v>1</v>
       </c>
       <c r="B692">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="C692">
         <v>2.2706</v>
@@ -15936,7 +16116,7 @@
         <v>2</v>
       </c>
       <c r="B693">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="C693">
         <v>1.8347</v>
@@ -15956,7 +16136,7 @@
         <v>3</v>
       </c>
       <c r="B694">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="C694">
         <v>2.4495</v>
@@ -15976,7 +16156,7 @@
         <v>4</v>
       </c>
       <c r="B695">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="C695">
         <v>1.1529</v>
@@ -15996,7 +16176,7 @@
         <v>5</v>
       </c>
       <c r="B696">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C696">
         <v>1.0942000000000001</v>
@@ -16016,7 +16196,7 @@
         <v>6</v>
       </c>
       <c r="B697">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C697">
         <v>2.1869000000000001</v>
@@ -16036,7 +16216,7 @@
         <v>7</v>
       </c>
       <c r="B698">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C698">
         <v>1.9016999999999999</v>
@@ -16056,7 +16236,7 @@
         <v>8</v>
       </c>
       <c r="B699">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C699">
         <v>1.0911999999999999</v>
@@ -16076,7 +16256,7 @@
         <v>9</v>
       </c>
       <c r="B700">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C700">
         <v>1.3306</v>
@@ -16096,7 +16276,7 @@
         <v>10</v>
       </c>
       <c r="B701">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C701">
         <v>1.3754999999999999</v>
@@ -16116,7 +16296,7 @@
         <v>11</v>
       </c>
       <c r="B702">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C702">
         <v>1.3022</v>
@@ -16136,7 +16316,7 @@
         <v>12</v>
       </c>
       <c r="B703">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C703">
         <v>1.6269</v>
@@ -16156,7 +16336,7 @@
         <v>13</v>
       </c>
       <c r="B704">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C704">
         <v>1.4965999999999999</v>
@@ -16176,7 +16356,7 @@
         <v>14</v>
       </c>
       <c r="B705">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C705">
         <v>1.3423</v>
@@ -16196,7 +16376,7 @@
         <v>15</v>
       </c>
       <c r="B706">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C706">
         <v>1.1171</v>
@@ -16216,7 +16396,7 @@
         <v>16</v>
       </c>
       <c r="B707">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C707">
         <v>1.3292999999999999</v>
@@ -16236,7 +16416,7 @@
         <v>17</v>
       </c>
       <c r="B708">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C708">
         <v>1.8481000000000001</v>
@@ -16256,7 +16436,7 @@
         <v>18</v>
       </c>
       <c r="B709">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C709">
         <v>1.5109999999999999</v>
@@ -16276,7 +16456,7 @@
         <v>19</v>
       </c>
       <c r="B710">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C710">
         <v>1.268</v>
@@ -16296,7 +16476,7 @@
         <v>20</v>
       </c>
       <c r="B711">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C711">
         <v>1.2796000000000001</v>
@@ -16316,7 +16496,7 @@
         <v>21</v>
       </c>
       <c r="B712">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C712">
         <v>1.0662</v>
@@ -16336,7 +16516,7 @@
         <v>22</v>
       </c>
       <c r="B713">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C713">
         <v>1.2577</v>
@@ -16356,7 +16536,7 @@
         <v>23</v>
       </c>
       <c r="B714">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C714">
         <v>1.4059999999999999</v>
@@ -16376,7 +16556,7 @@
         <v>24</v>
       </c>
       <c r="B715">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C715">
         <v>1.2041999999999999</v>
@@ -16396,7 +16576,7 @@
         <v>25</v>
       </c>
       <c r="B716">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C716">
         <v>1.4975000000000001</v>
@@ -16416,7 +16596,7 @@
         <v>26</v>
       </c>
       <c r="B717">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C717">
         <v>1.0647</v>
@@ -16436,7 +16616,7 @@
         <v>27</v>
       </c>
       <c r="B718">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C718">
         <v>1.3561000000000001</v>
@@ -16456,7 +16636,7 @@
         <v>28</v>
       </c>
       <c r="B719">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C719">
         <v>1.6283000000000001</v>
@@ -16488,7 +16668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="721" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A721">
         <v>30</v>
       </c>
@@ -16505,7 +16685,1126 @@
         <v>1</v>
       </c>
     </row>
+    <row r="722" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A722">
+        <v>1</v>
+      </c>
+      <c r="B722">
+        <v>-7</v>
+      </c>
+      <c r="C722">
+        <v>2.2706</v>
+      </c>
+      <c r="D722" t="s">
+        <v>12</v>
+      </c>
+      <c r="E722" t="s">
+        <v>9</v>
+      </c>
+      <c r="F722">
+        <v>9</v>
+      </c>
+      <c r="G722">
+        <v>1.5387500000000001</v>
+      </c>
+    </row>
+    <row r="723" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A723">
+        <v>2</v>
+      </c>
+      <c r="B723">
+        <v>-7</v>
+      </c>
+      <c r="C723">
+        <v>1.8347</v>
+      </c>
+      <c r="D723" t="s">
+        <v>12</v>
+      </c>
+      <c r="E723" t="s">
+        <v>9</v>
+      </c>
+      <c r="F723">
+        <v>9</v>
+      </c>
+      <c r="G723">
+        <v>1.6187499999999999</v>
+      </c>
+    </row>
+    <row r="724" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A724">
+        <v>3</v>
+      </c>
+      <c r="B724">
+        <v>-3</v>
+      </c>
+      <c r="C724">
+        <v>2.4495</v>
+      </c>
+      <c r="D724" t="s">
+        <v>12</v>
+      </c>
+      <c r="E724" t="s">
+        <v>9</v>
+      </c>
+      <c r="F724">
+        <v>9</v>
+      </c>
+      <c r="G724">
+        <v>1.7537500000000001</v>
+      </c>
+    </row>
+    <row r="725" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A725">
+        <v>4</v>
+      </c>
+      <c r="B725">
+        <v>-3</v>
+      </c>
+      <c r="C725">
+        <v>1.1529</v>
+      </c>
+      <c r="D725" t="s">
+        <v>12</v>
+      </c>
+      <c r="E725" t="s">
+        <v>9</v>
+      </c>
+      <c r="F725">
+        <v>9</v>
+      </c>
+      <c r="G725">
+        <v>1.855</v>
+      </c>
+    </row>
+    <row r="726" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A726">
+        <v>5</v>
+      </c>
+      <c r="B726">
+        <v>1</v>
+      </c>
+      <c r="C726">
+        <v>1.0942000000000001</v>
+      </c>
+      <c r="D726" t="s">
+        <v>12</v>
+      </c>
+      <c r="E726" t="s">
+        <v>9</v>
+      </c>
+      <c r="F726">
+        <v>9</v>
+      </c>
+      <c r="G726">
+        <v>1.5337499999999999</v>
+      </c>
+    </row>
+    <row r="727" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A727">
+        <v>6</v>
+      </c>
+      <c r="B727">
+        <v>1</v>
+      </c>
+      <c r="C727">
+        <v>2.1869000000000001</v>
+      </c>
+      <c r="D727" t="s">
+        <v>12</v>
+      </c>
+      <c r="E727" t="s">
+        <v>9</v>
+      </c>
+      <c r="F727">
+        <v>9</v>
+      </c>
+      <c r="G727">
+        <v>1.7399999999999998</v>
+      </c>
+    </row>
+    <row r="728" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A728">
+        <v>7</v>
+      </c>
+      <c r="B728">
+        <v>5</v>
+      </c>
+      <c r="C728">
+        <v>1.9016999999999999</v>
+      </c>
+      <c r="D728" t="s">
+        <v>12</v>
+      </c>
+      <c r="E728" t="s">
+        <v>9</v>
+      </c>
+      <c r="F728">
+        <v>9</v>
+      </c>
+      <c r="G728">
+        <v>1.69875</v>
+      </c>
+    </row>
+    <row r="729" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A729">
+        <v>8</v>
+      </c>
+      <c r="B729">
+        <v>5</v>
+      </c>
+      <c r="C729">
+        <v>1.0911999999999999</v>
+      </c>
+      <c r="D729" t="s">
+        <v>12</v>
+      </c>
+      <c r="E729" t="s">
+        <v>9</v>
+      </c>
+      <c r="F729">
+        <v>9</v>
+      </c>
+      <c r="G729">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="730" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A730">
+        <v>9</v>
+      </c>
+      <c r="B730">
+        <v>9</v>
+      </c>
+      <c r="C730">
+        <v>1.3306</v>
+      </c>
+      <c r="D730" t="s">
+        <v>12</v>
+      </c>
+      <c r="E730" t="s">
+        <v>9</v>
+      </c>
+      <c r="F730">
+        <v>9</v>
+      </c>
+      <c r="G730">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="731" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A731">
+        <v>10</v>
+      </c>
+      <c r="B731">
+        <v>9</v>
+      </c>
+      <c r="C731">
+        <v>1.3754999999999999</v>
+      </c>
+      <c r="D731" t="s">
+        <v>12</v>
+      </c>
+      <c r="E731" t="s">
+        <v>9</v>
+      </c>
+      <c r="F731">
+        <v>9</v>
+      </c>
+      <c r="G731">
+        <v>1.8100000000000003</v>
+      </c>
+    </row>
+    <row r="732" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A732">
+        <v>11</v>
+      </c>
+      <c r="B732">
+        <v>13</v>
+      </c>
+      <c r="C732">
+        <v>1.3022</v>
+      </c>
+      <c r="D732" t="s">
+        <v>12</v>
+      </c>
+      <c r="E732" t="s">
+        <v>9</v>
+      </c>
+      <c r="F732">
+        <v>9</v>
+      </c>
+      <c r="G732">
+        <v>1.78125</v>
+      </c>
+    </row>
+    <row r="733" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A733">
+        <v>12</v>
+      </c>
+      <c r="B733">
+        <v>13</v>
+      </c>
+      <c r="C733">
+        <v>1.6269</v>
+      </c>
+      <c r="D733" t="s">
+        <v>12</v>
+      </c>
+      <c r="E733" t="s">
+        <v>9</v>
+      </c>
+      <c r="F733">
+        <v>9</v>
+      </c>
+      <c r="G733">
+        <v>1.7450000000000001</v>
+      </c>
+    </row>
+    <row r="734" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A734">
+        <v>13</v>
+      </c>
+      <c r="B734">
+        <v>17</v>
+      </c>
+      <c r="C734">
+        <v>1.4965999999999999</v>
+      </c>
+      <c r="D734" t="s">
+        <v>12</v>
+      </c>
+      <c r="E734" t="s">
+        <v>9</v>
+      </c>
+      <c r="F734">
+        <v>9</v>
+      </c>
+      <c r="G734">
+        <v>1.825</v>
+      </c>
+    </row>
+    <row r="735" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A735">
+        <v>14</v>
+      </c>
+      <c r="B735">
+        <v>17</v>
+      </c>
+      <c r="C735">
+        <v>1.3423</v>
+      </c>
+      <c r="D735" t="s">
+        <v>12</v>
+      </c>
+      <c r="E735" t="s">
+        <v>9</v>
+      </c>
+      <c r="F735">
+        <v>9</v>
+      </c>
+      <c r="G735">
+        <v>1.8462499999999997</v>
+      </c>
+    </row>
+    <row r="736" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A736">
+        <v>15</v>
+      </c>
+      <c r="B736">
+        <v>21</v>
+      </c>
+      <c r="C736">
+        <v>1.1171</v>
+      </c>
+      <c r="D736" t="s">
+        <v>12</v>
+      </c>
+      <c r="E736" t="s">
+        <v>9</v>
+      </c>
+      <c r="F736">
+        <v>9</v>
+      </c>
+      <c r="G736">
+        <v>1.8962499999999998</v>
+      </c>
+    </row>
+    <row r="737" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A737">
+        <v>16</v>
+      </c>
+      <c r="B737">
+        <v>21</v>
+      </c>
+      <c r="C737">
+        <v>1.3292999999999999</v>
+      </c>
+      <c r="D737" t="s">
+        <v>12</v>
+      </c>
+      <c r="E737" t="s">
+        <v>9</v>
+      </c>
+      <c r="F737">
+        <v>9</v>
+      </c>
+      <c r="G737">
+        <v>2.09375</v>
+      </c>
+    </row>
+    <row r="738" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A738">
+        <v>17</v>
+      </c>
+      <c r="B738">
+        <v>25</v>
+      </c>
+      <c r="C738">
+        <v>1.8481000000000001</v>
+      </c>
+      <c r="D738" t="s">
+        <v>12</v>
+      </c>
+      <c r="E738" t="s">
+        <v>9</v>
+      </c>
+      <c r="F738">
+        <v>9</v>
+      </c>
+      <c r="G738">
+        <v>1.8649999999999998</v>
+      </c>
+    </row>
+    <row r="739" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A739">
+        <v>18</v>
+      </c>
+      <c r="B739">
+        <v>25</v>
+      </c>
+      <c r="C739">
+        <v>1.5109999999999999</v>
+      </c>
+      <c r="D739" t="s">
+        <v>12</v>
+      </c>
+      <c r="E739" t="s">
+        <v>9</v>
+      </c>
+      <c r="F739">
+        <v>9</v>
+      </c>
+      <c r="G739">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="740" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A740">
+        <v>19</v>
+      </c>
+      <c r="B740">
+        <v>29</v>
+      </c>
+      <c r="C740">
+        <v>1.268</v>
+      </c>
+      <c r="D740" t="s">
+        <v>12</v>
+      </c>
+      <c r="E740" t="s">
+        <v>9</v>
+      </c>
+      <c r="F740">
+        <v>9</v>
+      </c>
+      <c r="G740">
+        <v>2.2650000000000001</v>
+      </c>
+    </row>
+    <row r="741" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A741">
+        <v>20</v>
+      </c>
+      <c r="B741">
+        <v>29</v>
+      </c>
+      <c r="C741">
+        <v>1.2796000000000001</v>
+      </c>
+      <c r="D741" t="s">
+        <v>12</v>
+      </c>
+      <c r="E741" t="s">
+        <v>9</v>
+      </c>
+      <c r="F741">
+        <v>9</v>
+      </c>
+      <c r="G741">
+        <v>1.8399999999999999</v>
+      </c>
+    </row>
+    <row r="742" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A742">
+        <v>21</v>
+      </c>
+      <c r="B742">
+        <v>33</v>
+      </c>
+      <c r="C742">
+        <v>1.0662</v>
+      </c>
+      <c r="D742" t="s">
+        <v>12</v>
+      </c>
+      <c r="E742" t="s">
+        <v>9</v>
+      </c>
+      <c r="F742">
+        <v>9</v>
+      </c>
+      <c r="G742">
+        <v>1.9737499999999999</v>
+      </c>
+    </row>
+    <row r="743" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A743">
+        <v>22</v>
+      </c>
+      <c r="B743">
+        <v>33</v>
+      </c>
+      <c r="C743">
+        <v>1.2577</v>
+      </c>
+      <c r="D743" t="s">
+        <v>12</v>
+      </c>
+      <c r="E743" t="s">
+        <v>9</v>
+      </c>
+      <c r="F743">
+        <v>9</v>
+      </c>
+      <c r="G743">
+        <v>1.9237500000000001</v>
+      </c>
+    </row>
+    <row r="744" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A744">
+        <v>23</v>
+      </c>
+      <c r="B744">
+        <v>37</v>
+      </c>
+      <c r="C744">
+        <v>1.4059999999999999</v>
+      </c>
+      <c r="D744" t="s">
+        <v>12</v>
+      </c>
+      <c r="E744" t="s">
+        <v>9</v>
+      </c>
+      <c r="F744">
+        <v>9</v>
+      </c>
+      <c r="G744">
+        <v>2.0775000000000001</v>
+      </c>
+    </row>
+    <row r="745" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A745">
+        <v>24</v>
+      </c>
+      <c r="B745">
+        <v>37</v>
+      </c>
+      <c r="C745">
+        <v>1.2041999999999999</v>
+      </c>
+      <c r="D745" t="s">
+        <v>12</v>
+      </c>
+      <c r="E745" t="s">
+        <v>9</v>
+      </c>
+      <c r="F745">
+        <v>9</v>
+      </c>
+      <c r="G745">
+        <v>1.95625</v>
+      </c>
+    </row>
+    <row r="746" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A746">
+        <v>25</v>
+      </c>
+      <c r="B746">
+        <v>41</v>
+      </c>
+      <c r="C746">
+        <v>1.4975000000000001</v>
+      </c>
+      <c r="D746" t="s">
+        <v>12</v>
+      </c>
+      <c r="E746" t="s">
+        <v>9</v>
+      </c>
+      <c r="F746">
+        <v>9</v>
+      </c>
+      <c r="G746">
+        <v>1.9462499999999998</v>
+      </c>
+    </row>
+    <row r="747" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A747">
+        <v>26</v>
+      </c>
+      <c r="B747">
+        <v>41</v>
+      </c>
+      <c r="C747">
+        <v>1.0647</v>
+      </c>
+      <c r="D747" t="s">
+        <v>12</v>
+      </c>
+      <c r="E747" t="s">
+        <v>9</v>
+      </c>
+      <c r="F747">
+        <v>9</v>
+      </c>
+      <c r="G747">
+        <v>1.8687499999999999</v>
+      </c>
+    </row>
+    <row r="748" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A748">
+        <v>27</v>
+      </c>
+      <c r="B748">
+        <v>45</v>
+      </c>
+      <c r="C748">
+        <v>1.3561000000000001</v>
+      </c>
+      <c r="D748" t="s">
+        <v>12</v>
+      </c>
+      <c r="E748" t="s">
+        <v>9</v>
+      </c>
+      <c r="F748">
+        <v>9</v>
+      </c>
+      <c r="G748">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="749" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A749">
+        <v>28</v>
+      </c>
+      <c r="B749">
+        <v>45</v>
+      </c>
+      <c r="C749">
+        <v>1.6283000000000001</v>
+      </c>
+      <c r="D749" t="s">
+        <v>12</v>
+      </c>
+      <c r="E749" t="s">
+        <v>9</v>
+      </c>
+      <c r="F749">
+        <v>9</v>
+      </c>
+      <c r="G749">
+        <v>1.6619999999999999</v>
+      </c>
+    </row>
+    <row r="750" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A750">
+        <v>29</v>
+      </c>
+      <c r="C750">
+        <v>0</v>
+      </c>
+      <c r="D750" t="s">
+        <v>12</v>
+      </c>
+      <c r="E750" t="s">
+        <v>9</v>
+      </c>
+      <c r="F750">
+        <v>9</v>
+      </c>
+      <c r="G750">
+        <v>8.2500000000000004E-2</v>
+      </c>
+    </row>
+    <row r="751" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A751">
+        <v>30</v>
+      </c>
+      <c r="C751">
+        <v>0</v>
+      </c>
+      <c r="D751" t="s">
+        <v>12</v>
+      </c>
+      <c r="E751" t="s">
+        <v>9</v>
+      </c>
+      <c r="F751">
+        <v>9</v>
+      </c>
+      <c r="G751">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="752" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A752">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="753" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A753">
+        <v>2</v>
+      </c>
+      <c r="B753">
+        <v>-7</v>
+      </c>
+      <c r="C753">
+        <v>1.8347</v>
+      </c>
+      <c r="D753" t="s">
+        <v>12</v>
+      </c>
+      <c r="E753" t="s">
+        <v>9</v>
+      </c>
+      <c r="F753">
+        <v>10</v>
+      </c>
+      <c r="G753">
+        <v>1.6225000000000003</v>
+      </c>
+    </row>
+    <row r="754" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A754">
+        <v>3</v>
+      </c>
+      <c r="B754">
+        <v>-3</v>
+      </c>
+      <c r="C754">
+        <v>2.4495</v>
+      </c>
+      <c r="D754" t="s">
+        <v>12</v>
+      </c>
+      <c r="E754" t="s">
+        <v>9</v>
+      </c>
+      <c r="F754">
+        <v>10</v>
+      </c>
+      <c r="G754">
+        <v>1.7587499999999998</v>
+      </c>
+    </row>
+    <row r="755" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A755">
+        <v>4</v>
+      </c>
+      <c r="B755">
+        <v>-3</v>
+      </c>
+      <c r="C755">
+        <v>1.1529</v>
+      </c>
+      <c r="D755" t="s">
+        <v>12</v>
+      </c>
+      <c r="E755" t="s">
+        <v>9</v>
+      </c>
+      <c r="F755">
+        <v>10</v>
+      </c>
+      <c r="G755">
+        <v>1.4875</v>
+      </c>
+    </row>
+    <row r="756" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A756">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="757" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A757">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="758" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A758">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="759" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A759">
+        <v>8</v>
+      </c>
+      <c r="B759">
+        <v>5</v>
+      </c>
+      <c r="C759">
+        <v>1.0911999999999999</v>
+      </c>
+      <c r="D759" t="s">
+        <v>12</v>
+      </c>
+      <c r="E759" t="s">
+        <v>9</v>
+      </c>
+      <c r="F759">
+        <v>10</v>
+      </c>
+      <c r="G759">
+        <v>1.9412500000000001</v>
+      </c>
+    </row>
+    <row r="760" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A760">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="761" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A761">
+        <v>10</v>
+      </c>
+      <c r="B761">
+        <v>9</v>
+      </c>
+      <c r="C761">
+        <v>1.3754999999999999</v>
+      </c>
+      <c r="D761" t="s">
+        <v>12</v>
+      </c>
+      <c r="E761" t="s">
+        <v>9</v>
+      </c>
+      <c r="F761">
+        <v>10</v>
+      </c>
+      <c r="G761">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="762" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A762">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="763" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A763">
+        <v>12</v>
+      </c>
+      <c r="B763">
+        <v>13</v>
+      </c>
+      <c r="C763">
+        <v>1.6269</v>
+      </c>
+      <c r="D763" t="s">
+        <v>12</v>
+      </c>
+      <c r="E763" t="s">
+        <v>9</v>
+      </c>
+      <c r="F763">
+        <v>10</v>
+      </c>
+      <c r="G763">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="764" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A764">
+        <v>13</v>
+      </c>
+      <c r="B764">
+        <v>17</v>
+      </c>
+      <c r="C764">
+        <v>1.4965999999999999</v>
+      </c>
+      <c r="D764" t="s">
+        <v>12</v>
+      </c>
+      <c r="E764" t="s">
+        <v>9</v>
+      </c>
+      <c r="F764">
+        <v>10</v>
+      </c>
+      <c r="G764">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="765" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A765">
+        <v>14</v>
+      </c>
+      <c r="B765">
+        <v>17</v>
+      </c>
+      <c r="C765">
+        <v>1.3423</v>
+      </c>
+      <c r="D765" t="s">
+        <v>12</v>
+      </c>
+      <c r="E765" t="s">
+        <v>9</v>
+      </c>
+      <c r="F765">
+        <v>10</v>
+      </c>
+      <c r="G765">
+        <v>1.8225000000000002</v>
+      </c>
+    </row>
+    <row r="766" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A766">
+        <v>15</v>
+      </c>
+      <c r="B766">
+        <v>21</v>
+      </c>
+      <c r="C766">
+        <v>1.1171</v>
+      </c>
+      <c r="D766" t="s">
+        <v>12</v>
+      </c>
+      <c r="E766" t="s">
+        <v>9</v>
+      </c>
+      <c r="F766">
+        <v>10</v>
+      </c>
+      <c r="G766">
+        <v>1.80125</v>
+      </c>
+    </row>
+    <row r="767" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A767">
+        <v>16</v>
+      </c>
+      <c r="B767">
+        <v>21</v>
+      </c>
+      <c r="C767">
+        <v>1.3292999999999999</v>
+      </c>
+      <c r="D767" t="s">
+        <v>12</v>
+      </c>
+      <c r="E767" t="s">
+        <v>9</v>
+      </c>
+      <c r="F767">
+        <v>10</v>
+      </c>
+      <c r="G767">
+        <v>1.825</v>
+      </c>
+    </row>
+    <row r="768" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A768">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="769" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A769">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="770" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A770">
+        <v>19</v>
+      </c>
+      <c r="B770">
+        <v>29</v>
+      </c>
+      <c r="C770">
+        <v>1.268</v>
+      </c>
+      <c r="D770" t="s">
+        <v>12</v>
+      </c>
+      <c r="E770" t="s">
+        <v>9</v>
+      </c>
+      <c r="F770">
+        <v>10</v>
+      </c>
+      <c r="G770">
+        <v>1.9649999999999999</v>
+      </c>
+    </row>
+    <row r="771" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A771">
+        <v>20</v>
+      </c>
+      <c r="B771">
+        <v>29</v>
+      </c>
+      <c r="C771">
+        <v>1.2796000000000001</v>
+      </c>
+      <c r="D771" t="s">
+        <v>12</v>
+      </c>
+      <c r="E771" t="s">
+        <v>9</v>
+      </c>
+      <c r="F771">
+        <v>10</v>
+      </c>
+      <c r="G771">
+        <v>1.89375</v>
+      </c>
+    </row>
+    <row r="772" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A772">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="773" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A773">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="774" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A774">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="775" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A775">
+        <v>24</v>
+      </c>
+      <c r="B775">
+        <v>37</v>
+      </c>
+      <c r="C775">
+        <v>1.2041999999999999</v>
+      </c>
+      <c r="D775" t="s">
+        <v>12</v>
+      </c>
+      <c r="E775" t="s">
+        <v>9</v>
+      </c>
+      <c r="F775">
+        <v>10</v>
+      </c>
+      <c r="G775">
+        <v>1.9325000000000001</v>
+      </c>
+    </row>
+    <row r="776" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A776">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="777" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A777">
+        <v>26</v>
+      </c>
+      <c r="B777">
+        <v>41</v>
+      </c>
+      <c r="C777">
+        <v>1.0647</v>
+      </c>
+      <c r="D777" t="s">
+        <v>12</v>
+      </c>
+      <c r="E777" t="s">
+        <v>9</v>
+      </c>
+      <c r="F777">
+        <v>10</v>
+      </c>
+      <c r="G777">
+        <v>2.07125</v>
+      </c>
+    </row>
+    <row r="778" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A778">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="779" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A779">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="780" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A780">
+        <v>29</v>
+      </c>
+      <c r="C780">
+        <v>0</v>
+      </c>
+      <c r="D780" t="s">
+        <v>12</v>
+      </c>
+      <c r="E780" t="s">
+        <v>9</v>
+      </c>
+      <c r="F780">
+        <v>10</v>
+      </c>
+      <c r="G780">
+        <v>8.2500000000000004E-2</v>
+      </c>
+    </row>
+    <row r="781" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A781">
+        <v>30</v>
+      </c>
+      <c r="C781">
+        <v>0</v>
+      </c>
+      <c r="D781" t="s">
+        <v>12</v>
+      </c>
+      <c r="E781" t="s">
+        <v>9</v>
+      </c>
+      <c r="F781">
+        <v>10</v>
+      </c>
+      <c r="G781">
+        <v>0.04</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A722:G767">
+    <sortCondition ref="F722:F767"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
